--- a/Adds/Ch03_data.xlsx
+++ b/Adds/Ch03_data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365mokwon-my.sharepoint.com/personal/195901_365_mokwon_ac_kr/Documents/김대호(insoo_notebook)/강좌/BigDataAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MIS\BDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1224" documentId="8_{E3F9883A-9720-4546-9E28-405A1B4C7167}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{11CD223F-1FC4-41CE-8B9C-B5B2FA906200}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="150" windowWidth="10720" windowHeight="16420" xr2:uid="{7D0258F1-6B39-4AC4-BD99-B98C0E49C259}"/>
+    <workbookView xWindow="19095" yWindow="150" windowWidth="10725" windowHeight="16425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="6" r:id="rId1"/>
     <sheet name="벡터" sheetId="1" r:id="rId2"/>
-    <sheet name="배열" sheetId="2" r:id="rId3"/>
-    <sheet name="리스트" sheetId="3" r:id="rId4"/>
-    <sheet name="데이터프레임" sheetId="4" r:id="rId5"/>
-    <sheet name="데이터" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="배열" sheetId="2" r:id="rId4"/>
+    <sheet name="리스트" sheetId="3" r:id="rId5"/>
+    <sheet name="데이터프레임" sheetId="4" r:id="rId6"/>
+    <sheet name="데이터" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="386">
   <si>
     <t>x</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>x[5]  -&gt;</t>
-  </si>
-  <si>
-    <t>x[x&gt;=2 &amp; x&lt;=4]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x &lt;- c(1,2,3,4)</t>
@@ -1639,15 +1635,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x2 &lt;- seq(x, each=3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1689,58 +1677,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>by=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">x1 &lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(x, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>times=</t>
     </r>
     <r>
       <rPr>
@@ -2655,12 +2591,149 @@
     <t>처음으로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>isTRUE(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x1 &lt;- seq(0, 1, length.out = 11) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요소의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[x&gt;=2 &amp; x&lt;=4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen[Ramen == "Cup"] &lt;- "x"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen[Ramen == "Bowl"] &lt;- "Cup"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen[Ramen == "x"] &lt;- "Bowl"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2812,8 +2885,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2856,8 +2950,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3481,6 +3581,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3490,7 +3618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3947,6 +4075,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3968,20 +4111,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4003,8 +4158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -4034,8 +4187,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -4065,8 +4216,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -4096,8 +4245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -4127,8 +4274,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -4158,8 +4303,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -4336,83 +4479,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C790F29-755E-4189-AA38-958326E93CD0}" name="표1" displayName="표1" ref="B1:D3" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B1:D3" totalsRowShown="0" dataDxfId="9">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E4A4E1D1-5CC4-4C0D-BDCC-46658285728D}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F7E7E1CD-02DD-48BC-81A2-C97259C32C19}" name="Age" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9A6A69D5-A257-4273-A964-F275FEFD981F}" name="Address" dataDxfId="6"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Age" dataDxfId="7"/>
+    <tableColumn id="3" name="Address" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CAF43AD-5FA8-41B5-AA31-7814C7C2BB35}" name="표1_3" displayName="표1_3" ref="C23:F25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표1_3" displayName="표1_3" ref="C23:F25" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C2A4B41A-B19E-4CCC-84B4-B08CF4292064}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{DA11D0A8-B2A3-4033-999E-22FED9FB323E}" name="Age"/>
-    <tableColumn id="3" xr3:uid="{3C48444B-9EF4-425A-9EB3-E4C72211A7B2}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{6B9D0581-3F5A-447D-8E05-3357B3227D68}" name="Dept" dataDxfId="5"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Age"/>
+    <tableColumn id="3" name="Address"/>
+    <tableColumn id="5" name="Dept" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E7AAF83-B5E8-4F2E-AB0A-312DDE31E908}" name="표1_34" displayName="표1_34" ref="C35:F38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_34" displayName="표1_34" ref="C35:F38" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{45F364B3-1855-41EB-8F71-34D34E8A92C2}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F088F060-1783-46A5-BC75-DB27F1B46890}" name="Age"/>
-    <tableColumn id="3" xr3:uid="{72E03EB9-8AE9-4D6B-A8FF-C20FEE7BD96F}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{F64C64C3-B786-4A5C-B1D1-0A95F56595DD}" name="Dept" dataDxfId="4"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Age"/>
+    <tableColumn id="3" name="Address"/>
+    <tableColumn id="5" name="Dept" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9B8509A-89A4-47CB-A5F3-AB6ED8622F14}" name="표1_345" displayName="표1_345" ref="C45:F46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_345" displayName="표1_345" ref="C45:F46" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BC1F8BC8-0C30-4225-9AB2-99676A229214}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{0BD79746-B0C0-4974-B4B0-072C64BF5541}" name="Age"/>
-    <tableColumn id="3" xr3:uid="{DDD63B87-64BE-4B84-93D0-0FF912B8BB52}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{7E218B34-C8BC-4A7F-A367-4A3FD62A275A}" name="Dept" dataDxfId="3"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Age"/>
+    <tableColumn id="3" name="Address"/>
+    <tableColumn id="5" name="Dept" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5A1E47C9-0F8D-4CE9-9066-429204F70C59}" name="표1_346" displayName="표1_346" ref="C52:F54" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표1_346" displayName="표1_346" ref="C52:F54" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{996B55F8-1D18-4580-9BD6-6B7965802D33}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{688971E9-AA98-4F24-8224-7F357053AFFC}" name="Age"/>
-    <tableColumn id="3" xr3:uid="{56C450A6-EA92-49E1-9C74-2B41D3F21DD9}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{764C9DF2-C059-4908-9F81-4F9D09DCCA03}" name="Dept" dataDxfId="2"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Age"/>
+    <tableColumn id="3" name="Address"/>
+    <tableColumn id="5" name="Dept" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54FE00AA-E9C3-440E-BF5E-F5DBB52B1C5F}" name="표1_347" displayName="표1_347" ref="C70:F73" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표1_347" displayName="표1_347" ref="C70:F73" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B2782882-7ED0-4F33-9383-07853C982D14}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{CFE6804C-A59D-4D86-9880-29453E72235C}" name="Age"/>
-    <tableColumn id="3" xr3:uid="{BD27A281-4AB8-4AFF-8FFE-73BBD534D291}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{E74C3767-9611-4C96-950D-AD40D2EB2A56}" name="Dept" dataDxfId="1"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Age"/>
+    <tableColumn id="3" name="Address"/>
+    <tableColumn id="5" name="Dept" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{01B4D3E3-22CE-49B8-9E3C-6884C91FFE02}" name="표1_3478" displayName="표1_3478" ref="C75:F78" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표1_3478" displayName="표1_3478" ref="C75:F78" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A1A92C06-D183-4C77-98BF-0BEDE02ADE2E}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9C99DEBA-1DEA-497E-8C35-41887E70362E}" name="Age"/>
-    <tableColumn id="3" xr3:uid="{026F86A5-C1C3-4079-9630-901219BB5D3B}" name="Address"/>
-    <tableColumn id="5" xr3:uid="{EEF9DBB9-832E-49E7-A897-2CDCE8EBB700}" name="Dept" dataDxfId="0"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Age"/>
+    <tableColumn id="3" name="Address"/>
+    <tableColumn id="5" name="Dept" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4714,11 +4857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ABF435-AEA7-49DA-A4F7-A9FE051F63DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D22:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4727,59 +4870,59 @@
   </cols>
   <sheetData>
     <row r="22" spans="4:7">
-      <c r="E22" s="152" t="s">
+      <c r="E22" s="157" t="s">
+        <v>357</v>
+      </c>
+      <c r="F22" s="158"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="E23" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="160"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="E24" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="160"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="E25" s="159" t="s">
+        <v>360</v>
+      </c>
+      <c r="F25" s="160"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="E26" s="161" t="s">
         <v>361</v>
       </c>
-      <c r="F22" s="153"/>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="E23" s="154" t="s">
+      <c r="F26" s="162"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="163" t="s">
         <v>362</v>
       </c>
-      <c r="F23" s="155"/>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="E24" s="154" t="s">
-        <v>363</v>
-      </c>
-      <c r="F24" s="155"/>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="E25" s="154" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" s="155"/>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="E26" s="156" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="157"/>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="158" t="s">
-        <v>366</v>
-      </c>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E22" location="벡터!A1" display="1. 벡터" xr:uid="{7FA7B9BF-EB2E-4EC7-846D-5E27CD64ABA1}"/>
-    <hyperlink ref="E23" location="배열!A1" display="2. 배열" xr:uid="{8A819772-7F79-471F-AFFF-EB2B71CA4415}"/>
-    <hyperlink ref="E24" location="리스트!A1" display="3. 리스트" xr:uid="{62729404-4B32-4CCC-B0C3-07976F484E85}"/>
-    <hyperlink ref="E25" location="데이터프레임!A1" display="4. 데이터 프레임" xr:uid="{A3AF6F60-C75C-4FA4-A4DA-30660EA8B9B6}"/>
-    <hyperlink ref="E26" location="데이터!A1" display="5. 데이터" xr:uid="{D54452AA-83F5-4CFA-B084-35D6E4F5E44B}"/>
+    <hyperlink ref="E22" location="벡터!A1" display="1. 벡터"/>
+    <hyperlink ref="E23" location="배열!A1" display="2. 배열"/>
+    <hyperlink ref="E24" location="리스트!A1" display="3. 리스트"/>
+    <hyperlink ref="E25" location="데이터프레임!A1" display="4. 데이터 프레임"/>
+    <hyperlink ref="E26" location="데이터!A1" display="5. 데이터"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4787,10 +4930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DB93AC-DC4D-480D-AD56-FF2FE99A2334}">
-  <dimension ref="A1:L159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4806,18 +4951,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="42">
         <v>80</v>
@@ -4825,7 +4970,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="42">
         <v>85</v>
@@ -4839,7 +4984,7 @@
     <row r="5" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="6" spans="1:10">
       <c r="A6" s="88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>0</v>
@@ -4853,7 +4998,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
@@ -4867,7 +5012,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="46">
         <v>2</v>
@@ -4899,15 +5044,15 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>3</v>
@@ -4925,15 +5070,15 @@
         <v>7</v>
       </c>
       <c r="I13" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="81" t="s">
         <v>255</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4946,7 +5091,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4959,7 +5104,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4972,7 +5117,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4985,7 +5130,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4997,7 +5142,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5009,7 +5154,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5030,7 +5175,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>0</v>
@@ -5042,12 +5187,12 @@
         <v>12</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="42">
         <v>1</v>
@@ -5062,7 +5207,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="42">
         <v>2</v>
@@ -5077,7 +5222,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="42">
         <v>3</v>
@@ -5092,7 +5237,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="98" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5101,12 +5246,12 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>1</v>
@@ -5138,7 +5283,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>0</v>
@@ -5153,15 +5298,15 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C36" s="42" t="b">
         <v>1</v>
@@ -5176,7 +5321,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="42" t="b">
         <v>1</v>
@@ -5191,7 +5336,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="89" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C38" s="42" t="b">
         <v>0</v>
@@ -5206,7 +5351,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="89" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C39" s="42" t="b">
         <v>0</v>
@@ -5221,26 +5366,26 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="89" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="90" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="92" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>0</v>
@@ -5275,7 +5420,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="53" t="s">
         <v>0</v>
@@ -5283,7 +5428,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="89" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C51" s="54">
         <v>1</v>
@@ -5291,7 +5436,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="54">
         <v>2</v>
@@ -5308,78 +5453,57 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="89" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D55" s="1">
+        <v>270</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="89"/>
+      <c r="C56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E57" s="4">
         <v>2</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F57" s="1">
         <v>3</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G57" s="4">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I57" s="4">
         <v>2</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J57" s="1">
         <v>3</v>
       </c>
-      <c r="J55" s="1">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1">
-        <v>2</v>
-      </c>
-      <c r="L55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="89" t="s">
-        <v>271</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2</v>
-      </c>
-      <c r="H56" s="1">
-        <v>2</v>
-      </c>
-      <c r="I56" s="1">
-        <v>2</v>
-      </c>
-      <c r="J56" s="1">
-        <v>3</v>
-      </c>
-      <c r="K56" s="1">
-        <v>3</v>
-      </c>
-      <c r="L56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="89"/>
-      <c r="C57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="K57" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="100" t="s">
@@ -5388,37 +5512,21 @@
       <c r="C58" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <v>2</v>
-      </c>
-      <c r="J58" s="1">
-        <v>3</v>
-      </c>
-      <c r="K58" s="4">
-        <v>4</v>
-      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="100" t="s">
         <v>263</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5430,10 +5538,10 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="100" t="s">
+      <c r="A60" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D60" s="1"/>
@@ -5445,367 +5553,411 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="2" t="s">
-        <v>284</v>
+      <c r="C63" s="42" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="C64" s="42" t="s">
-        <v>0</v>
+      <c r="A64" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="99" t="s">
-        <v>170</v>
-      </c>
       <c r="B65" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="42">
         <v>5</v>
       </c>
     </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>285</v>
+      <c r="A71" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="A72" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="C74" s="1">
+    <row r="78" spans="1:3">
+      <c r="A78" s="89"/>
+      <c r="C78" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="C75" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="89"/>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="89"/>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="89"/>
-      <c r="C81" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="89"/>
+      <c r="A82" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>0</v>
+      <c r="A83" s="89"/>
+      <c r="C83" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="89"/>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="89"/>
+      <c r="A85" s="90"/>
       <c r="C85" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="90"/>
-      <c r="C86" s="1">
         <v>4</v>
       </c>
     </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>288</v>
+      <c r="A90" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>0</v>
+      <c r="A91" s="89"/>
+      <c r="C91" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="89"/>
-      <c r="C92" s="1">
-        <v>1</v>
+      <c r="C92" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="89"/>
-      <c r="C93" s="10">
-        <v>20</v>
+      <c r="C93" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="89"/>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="89"/>
       <c r="C95" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="89"/>
-      <c r="C96" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="89"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="1" t="s">
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="98" spans="1:8">
+      <c r="A98" s="89"/>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="89"/>
-      <c r="C99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="C99" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="89"/>
-      <c r="C100" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C100" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="89"/>
       <c r="C101" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="89"/>
-      <c r="C102" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="90"/>
-      <c r="C103" s="1">
+    <row r="102" spans="1:8">
+      <c r="A102" s="90"/>
+      <c r="C102" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="C106" s="1" t="s">
+    <row r="104" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A104" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A105" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="C107" s="10">
+      <c r="E105" s="165" t="s">
+        <v>370</v>
+      </c>
+      <c r="F105" s="166" t="s">
+        <v>375</v>
+      </c>
+      <c r="G105" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="H105" s="168"/>
+    </row>
+    <row r="106" spans="1:8" ht="17.25" thickTop="1">
+      <c r="C106" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="C108" s="11">
+      <c r="E106" s="164" t="s">
+        <v>371</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="G106" s="169" t="s">
+        <v>383</v>
+      </c>
+      <c r="H106" s="170"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="C107" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="E107" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="F107" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="G107" s="169" t="s">
+        <v>381</v>
+      </c>
+      <c r="H107" s="170"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="C108" s="10">
+        <v>10</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="G108" s="169" t="s">
+        <v>375</v>
+      </c>
+      <c r="H108" s="170"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="C109" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="E109" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="F109" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="G109" s="169" t="s">
+        <v>382</v>
+      </c>
+      <c r="H109" s="170"/>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" thickBot="1">
       <c r="C110" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="C111" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="C112" s="84"/>
+      <c r="G110" s="171" t="s">
+        <v>384</v>
+      </c>
+      <c r="H110" s="172"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="C111" s="84"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
-        <v>301</v>
+      <c r="C113" s="83" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="C114" s="83" t="s">
-        <v>0</v>
+      <c r="A114" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="83">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="91" t="s">
-        <v>34</v>
-      </c>
       <c r="C115" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="C116" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="C117" s="83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="C118" s="83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="C119" s="83">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="C120" s="83">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="C121" s="83">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="C122" s="83">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="C123" s="83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="C124" s="83">
         <v>10</v>
       </c>
     </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="1"/>
+    </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="96" t="s">
+      <c r="A126" s="97" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="1"/>
@@ -5824,7 +5976,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C129" s="1"/>
     </row>
@@ -5835,32 +5987,54 @@
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="97" t="s">
-        <v>41</v>
+      <c r="A131" s="98" t="s">
+        <v>38</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="1"/>
+      <c r="A132" s="97" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="2" t="s">
-        <v>247</v>
+      <c r="A135" s="88" t="s">
+        <v>77</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>94</v>
@@ -5870,7 +6044,7 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="88" t="s">
+      <c r="A136" s="89" t="s">
         <v>78</v>
       </c>
       <c r="C136" s="42" t="s">
@@ -5897,7 +6071,7 @@
         <v>79</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D137" s="42" t="s">
         <v>74</v>
@@ -5917,10 +6091,10 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="89" t="s">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>75</v>
@@ -5940,7 +6114,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="89" t="s">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="C139" s="42" t="s">
         <v>71</v>
@@ -5962,127 +6136,104 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C140" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D140" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="A140" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="90" t="s">
-        <v>94</v>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="2" t="s">
-        <v>302</v>
+      <c r="A144" s="88" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="88" t="s">
-        <v>295</v>
+      <c r="A145" s="89" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="89" t="s">
+      <c r="A146" s="89"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="89" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="89"/>
+      <c r="B147" s="85" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="89" t="s">
-        <v>298</v>
-      </c>
-      <c r="B148" s="85" t="s">
-        <v>296</v>
+      <c r="A148" s="89"/>
+      <c r="B148" s="85">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="89"/>
       <c r="B149" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="89"/>
       <c r="B150" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="89"/>
-      <c r="B151" s="85">
-        <v>3</v>
+      <c r="B151" s="85" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="89"/>
-      <c r="B152" s="85" t="s">
-        <v>297</v>
+      <c r="B152" s="85">
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="89"/>
-      <c r="B153" s="85">
-        <v>5</v>
-      </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="89"/>
+      <c r="A154" s="89" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="89" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="90" t="s">
-        <v>300</v>
-      </c>
+      <c r="A155" s="90" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="B157" s="152"/>
+      <c r="C157" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="D157" s="152"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="B158" s="159"/>
-      <c r="C158" s="160" t="s">
-        <v>369</v>
-      </c>
-      <c r="D158" s="159"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="B159" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="C159" s="160" t="s">
-        <v>370</v>
-      </c>
-      <c r="D159" s="162" t="s">
-        <v>368</v>
+      <c r="B158" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="C158" s="153" t="s">
+        <v>366</v>
+      </c>
+      <c r="D158" s="155" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C158" location="벡터!A1" display="▲" xr:uid="{BF0A2909-1E5C-4178-95B6-97158895C014}"/>
-    <hyperlink ref="B159" location="표지!A1" display="◀◀" xr:uid="{A62BE1B8-029B-4529-9342-A147BF346959}"/>
-    <hyperlink ref="D159" location="배열!A1" display="▶▶" xr:uid="{A6467E28-79BB-42DE-9B04-404F07183967}"/>
-    <hyperlink ref="C159" location="표지!A1" display="처음으로" xr:uid="{55B19D01-0968-4386-9DF2-6DE0DDB6F723}"/>
+    <hyperlink ref="C157" location="벡터!A1" display="▲"/>
+    <hyperlink ref="B158" location="표지!A1" display="◀◀"/>
+    <hyperlink ref="D158" location="배열!A1" display="▶▶"/>
+    <hyperlink ref="C158" location="표지!A1" display="처음으로"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6090,7 +6241,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4284F686-18F6-4795-9809-8F7D60BAD727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2-5.5</f>
+        <v>-4.5</v>
+      </c>
+      <c r="C2">
+        <f>B2^2</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">A3-5.5</f>
+        <v>-3.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="1">B3^2</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13">
+        <f>C12/(10-1)</f>
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
@@ -6104,12 +6418,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="88" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -6120,7 +6434,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="89" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
@@ -6149,7 +6463,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -6182,15 +6496,15 @@
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -6220,24 +6534,24 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="42">
         <v>2</v>
@@ -6251,7 +6565,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="42">
         <v>4</v>
@@ -6271,20 +6585,20 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -6301,10 +6615,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6322,15 +6636,15 @@
     <row r="26" spans="1:5">
       <c r="A26" s="89"/>
       <c r="C26" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -6341,19 +6655,19 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="89"/>
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -6365,7 +6679,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="89"/>
       <c r="B31" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
@@ -6379,21 +6693,21 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -6407,12 +6721,12 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="88" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C37" s="86">
         <v>2</v>
@@ -6423,7 +6737,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="90" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -6431,17 +6745,17 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>0</v>
@@ -6479,7 +6793,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -6487,7 +6801,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="88" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>0</v>
@@ -6495,7 +6809,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="90" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C48" s="52">
         <v>3</v>
@@ -6521,35 +6835,35 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="92" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="E53" s="69" t="s">
         <v>54</v>
-      </c>
-      <c r="E53" s="69" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="89"/>
       <c r="B54" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -6564,7 +6878,7 @@
     <row r="55" spans="1:5">
       <c r="A55" s="89"/>
       <c r="B55" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
         <v>4</v>
@@ -6581,7 +6895,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="93" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6590,19 +6904,19 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
         <v>53</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>54</v>
-      </c>
-      <c r="E58" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="89"/>
       <c r="B59" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -6617,7 +6931,7 @@
     <row r="60" spans="1:5">
       <c r="A60" s="90"/>
       <c r="B60" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1">
         <v>4</v>
@@ -6631,27 +6945,27 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
         <v>53</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>54</v>
-      </c>
-      <c r="E63" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="89"/>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
@@ -6668,10 +6982,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6688,32 +7002,32 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="94" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
         <v>53</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>54</v>
-      </c>
-      <c r="E71" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="95" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B72" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
@@ -6727,7 +7041,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="B73" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
@@ -6741,23 +7055,23 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="F76" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="F76" s="42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B77" s="85">
         <v>1</v>
@@ -6771,7 +7085,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="85">
         <v>2</v>
@@ -6785,7 +7099,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" s="85">
         <v>3</v>
@@ -6814,25 +7128,25 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="E82" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="89"/>
       <c r="B83" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -6847,7 +7161,7 @@
     <row r="84" spans="1:6">
       <c r="A84" s="89"/>
       <c r="B84" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
@@ -6862,7 +7176,7 @@
     <row r="85" spans="1:6">
       <c r="A85" s="89"/>
       <c r="B85" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1">
         <v>3</v>
@@ -6877,7 +7191,7 @@
     <row r="86" spans="1:6">
       <c r="A86" s="89"/>
       <c r="B86" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="1">
         <v>4</v>
@@ -6898,28 +7212,28 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="E88" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="F88" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="89"/>
       <c r="B89" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -6937,7 +7251,7 @@
     <row r="90" spans="1:6">
       <c r="A90" s="89"/>
       <c r="B90" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" s="1">
         <v>5</v>
@@ -6955,7 +7269,7 @@
     <row r="91" spans="1:6">
       <c r="A91" s="90"/>
       <c r="B91" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C91" s="1">
         <v>9</v>
@@ -6972,46 +7286,46 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="17.25" thickBot="1">
       <c r="B97" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E97" s="14" t="s">
-        <v>242</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H97" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I97" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I97" s="14" t="s">
+      <c r="J97" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="J97" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C98" s="43">
         <v>1</v>
@@ -7023,7 +7337,7 @@
         <v>5</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H98" s="43">
         <v>7</v>
@@ -7037,7 +7351,7 @@
     </row>
     <row r="99" spans="2:10" ht="17.25" thickBot="1">
       <c r="B99" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99" s="48">
         <v>2</v>
@@ -7049,7 +7363,7 @@
         <v>6</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H99" s="48">
         <v>8</v>
@@ -7062,38 +7376,38 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="159"/>
-      <c r="C103" s="163" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" s="159"/>
+      <c r="B103" s="152"/>
+      <c r="C103" s="156" t="s">
+        <v>365</v>
+      </c>
+      <c r="D103" s="152"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="C104" s="160" t="s">
-        <v>370</v>
-      </c>
-      <c r="D104" s="162" t="s">
-        <v>368</v>
+      <c r="B104" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="C104" s="153" t="s">
+        <v>366</v>
+      </c>
+      <c r="D104" s="155" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C103" location="배열!A1" display="▲" xr:uid="{4CB2BC2D-974A-4F2A-AF35-DF1C0AC63BCD}"/>
-    <hyperlink ref="C104" location="표지!A1" display="처음으로" xr:uid="{ECBA046B-D8B8-4347-9A3A-77AB01421F7B}"/>
-    <hyperlink ref="D104" location="리스트!A1" display="▶▶" xr:uid="{5772BE66-A6FE-4069-A73D-BA160CD37FA2}"/>
-    <hyperlink ref="B104" location="벡터!A1" display="◀◀" xr:uid="{B9D009DE-7D46-4925-8C39-79169A096238}"/>
+    <hyperlink ref="C103" location="배열!A1" display="▲"/>
+    <hyperlink ref="C104" location="표지!A1" display="처음으로"/>
+    <hyperlink ref="D104" location="리스트!A1" display="▶▶"/>
+    <hyperlink ref="B104" location="벡터!A1" display="◀◀"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8F66E1-97FE-4299-9BB5-CE8946857FC3}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -7111,64 +7425,64 @@
         <v>0</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>128</v>
       </c>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="B3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="B4" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="73">
         <v>20</v>
       </c>
       <c r="E4" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>122</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>123</v>
       </c>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="B5" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="24"/>
     </row>
@@ -7190,12 +7504,12 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -7226,7 +7540,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="107"/>
       <c r="C12" s="107"/>
@@ -7248,30 +7562,30 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="115"/>
       <c r="B18" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7279,34 +7593,34 @@
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="A20" s="115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="115"/>
       <c r="B21" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="115"/>
       <c r="B22" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7316,23 +7630,23 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="38"/>
       <c r="E24" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="115"/>
       <c r="B25" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7340,57 +7654,57 @@
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1">
       <c r="A27" s="115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="38"/>
       <c r="E27" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="115"/>
       <c r="B28" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="116"/>
       <c r="B29" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
       <c r="A31" s="114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="115"/>
       <c r="B32" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -7400,34 +7714,34 @@
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1">
       <c r="A34" s="115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="115"/>
       <c r="B35" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="115"/>
       <c r="B36" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7435,23 +7749,23 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="38"/>
       <c r="E38" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="115"/>
       <c r="B39" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="13"/>
     </row>
@@ -7461,33 +7775,33 @@
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1">
       <c r="A41" s="115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="40"/>
       <c r="E41" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="115"/>
       <c r="B42" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="115"/>
       <c r="B43" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="13"/>
     </row>
@@ -7497,23 +7811,23 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="38"/>
       <c r="E45" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="115"/>
       <c r="B46" s="112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="13"/>
     </row>
@@ -7523,109 +7837,109 @@
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="40"/>
       <c r="E48" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="115"/>
       <c r="B49" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="116"/>
       <c r="B50" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="118"/>
       <c r="C53" s="119"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="121"/>
       <c r="C57" s="122"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="124"/>
       <c r="C58" s="125"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="127"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B64" s="127"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
         <v>115</v>
-      </c>
-      <c r="C68" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" thickBot="1">
@@ -7633,27 +7947,27 @@
     </row>
     <row r="70" spans="1:7" ht="17.25" thickBot="1">
       <c r="A70" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" thickBot="1">
       <c r="A71" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="34"/>
       <c r="F71" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:7" ht="17.25" thickBot="1">
       <c r="A72" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="76">
@@ -7666,7 +7980,7 @@
         <v>-2</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G72" s="30">
         <v>12.3</v>
@@ -7674,7 +7988,7 @@
     </row>
     <row r="73" spans="1:7" ht="17.25" thickBot="1">
       <c r="A73" s="75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="78">
@@ -7689,17 +8003,17 @@
     </row>
     <row r="74" spans="1:7" ht="17.25" thickBot="1">
       <c r="A74" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B77" s="118"/>
       <c r="C77" s="118"/>
@@ -7710,7 +8024,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="121"/>
       <c r="C78" s="121"/>
@@ -7721,7 +8035,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="124"/>
       <c r="C79" s="124"/>
@@ -7732,90 +8046,90 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B88" s="119"/>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="122"/>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B90" s="125"/>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="C94" s="159"/>
-      <c r="D94" s="160" t="s">
-        <v>369</v>
-      </c>
-      <c r="E94" s="159"/>
+      <c r="C94" s="152"/>
+      <c r="D94" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="E94" s="152"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="C95" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="D95" s="160" t="s">
-        <v>370</v>
-      </c>
-      <c r="E95" s="162" t="s">
-        <v>368</v>
+      <c r="C95" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="D95" s="153" t="s">
+        <v>366</v>
+      </c>
+      <c r="E95" s="155" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D94" location="리스트!A1" display="▲" xr:uid="{29E41AFB-470B-47F7-8690-C32EE3D469B3}"/>
-    <hyperlink ref="C95" location="배열!A1" display="◀◀" xr:uid="{2CD45852-C209-4DFA-9FDE-96ECB886FB2B}"/>
-    <hyperlink ref="E95" location="데이터프레임!A1" display="▶▶" xr:uid="{B07E9D92-EB04-49C4-A0A7-C38640FFB6D3}"/>
-    <hyperlink ref="D95" location="표지!A1" display="처음으로" xr:uid="{39B13F65-BD09-4370-9E3D-6C8303A55EFF}"/>
+    <hyperlink ref="D94" location="리스트!A1" display="▲"/>
+    <hyperlink ref="C95" location="배열!A1" display="◀◀"/>
+    <hyperlink ref="E95" location="데이터프레임!A1" display="▶▶"/>
+    <hyperlink ref="D95" location="표지!A1" display="처음으로"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E577A-DE0E-4F85-B203-1BA366666CF4}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7830,50 +8144,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="69">
         <v>20</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="69">
         <v>30</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="118"/>
       <c r="C7" s="118"/>
@@ -7899,12 +8213,12 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="118"/>
       <c r="C11" s="118"/>
@@ -7912,7 +8226,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="121"/>
       <c r="C12" s="121"/>
@@ -7920,7 +8234,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="121"/>
       <c r="C13" s="121"/>
@@ -7928,7 +8242,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
@@ -7944,20 +8258,20 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
@@ -7965,10 +8279,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -7976,7 +8290,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="123" t="s">
         <v>0</v>
@@ -7987,82 +8301,82 @@
     </row>
     <row r="23" spans="1:9">
       <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
       <c r="F23" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="C25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="C28" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="57" t="s">
-        <v>120</v>
-      </c>
       <c r="D28" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="59">
         <v>25</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="118"/>
       <c r="C31" s="118"/>
@@ -8075,7 +8389,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="121"/>
       <c r="C32" s="121"/>
@@ -8088,7 +8402,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="124"/>
       <c r="C33" s="124"/>
@@ -8101,58 +8415,58 @@
     </row>
     <row r="35" spans="1:9">
       <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>119</v>
       </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
       <c r="F35" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="C37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="C38" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="59">
         <v>25</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8163,20 +8477,20 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="64" t="s">
         <v>193</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>194</v>
       </c>
       <c r="C43" s="66">
         <v>25</v>
@@ -8189,34 +8503,34 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>119</v>
       </c>
-      <c r="E45" t="s">
-        <v>120</v>
-      </c>
       <c r="F45" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="115"/>
       <c r="C46" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="59">
         <v>25</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -8224,7 +8538,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C48" s="66">
         <v>20</v>
@@ -8247,49 +8561,49 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
         <v>118</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>119</v>
       </c>
-      <c r="E52" t="s">
-        <v>120</v>
-      </c>
       <c r="F52" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="115"/>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D53">
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="115"/>
       <c r="C54" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="59">
         <v>25</v>
       </c>
       <c r="E54" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F54" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8297,50 +8611,50 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="C57" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="C59" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="115"/>
       <c r="C63" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="115"/>
       <c r="C64" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8348,10 +8662,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8359,25 +8673,25 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="119"/>
       <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
         <v>118</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>119</v>
       </c>
-      <c r="E70" t="s">
-        <v>120</v>
-      </c>
       <c r="F70" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8386,48 +8700,48 @@
       </c>
       <c r="B71" s="122"/>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="68">
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="120"/>
       <c r="B72" s="122"/>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D72">
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F72" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="120"/>
       <c r="B73" s="122"/>
       <c r="C73" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="59">
         <v>25</v>
       </c>
       <c r="E73" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8436,20 +8750,20 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B75" s="122"/>
       <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" t="s">
         <v>118</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>119</v>
       </c>
-      <c r="E75" t="s">
-        <v>120</v>
-      </c>
       <c r="F75" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8458,57 +8772,57 @@
       </c>
       <c r="B76" s="125"/>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" s="68">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="C77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77">
         <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="C78" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D78" s="59">
         <v>25</v>
       </c>
       <c r="E78" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F78" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -8518,7 +8832,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="C84" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8528,7 +8842,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="C85" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8538,7 +8852,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="C86" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8548,7 +8862,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="C87" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -8558,29 +8872,29 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="96" spans="1:8">
       <c r="A96" s="134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B96" s="135"/>
       <c r="C96" s="135"/>
       <c r="D96" s="135"/>
       <c r="E96" s="135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F96" s="135"/>
       <c r="G96" s="135"/>
@@ -8588,7 +8902,7 @@
     </row>
     <row r="97" spans="1:8" ht="17.25" thickBot="1">
       <c r="A97" s="137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="138"/>
       <c r="C97" s="138"/>
@@ -8600,7 +8914,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8611,31 +8925,31 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2"/>
-      <c r="D103" s="159"/>
-      <c r="E103" s="160" t="s">
-        <v>369</v>
-      </c>
-      <c r="F103" s="159"/>
+      <c r="D103" s="152"/>
+      <c r="E103" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="F103" s="152"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2"/>
-      <c r="D104" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="E104" s="160" t="s">
-        <v>370</v>
-      </c>
-      <c r="F104" s="162" t="s">
-        <v>368</v>
+      <c r="D104" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="E104" s="153" t="s">
+        <v>366</v>
+      </c>
+      <c r="F104" s="155" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E103" location="데이터프레임!A1" display="▲" xr:uid="{CFB85298-CB68-4A00-83A6-76ABB7ED3663}"/>
-    <hyperlink ref="D104" location="리스트!A1" display="◀◀" xr:uid="{04B7FE48-29DA-42BE-8DBA-459C5211E353}"/>
-    <hyperlink ref="F104" location="데이터!A1" display="▶▶" xr:uid="{086E5521-44E3-4535-8E32-8832D7175AF8}"/>
-    <hyperlink ref="E104" location="표지!A1" display="처음으로" xr:uid="{5D628A5C-D2EF-495B-8770-1B57E22F3F8F}"/>
+    <hyperlink ref="E103" location="데이터프레임!A1" display="▲"/>
+    <hyperlink ref="D104" location="리스트!A1" display="◀◀"/>
+    <hyperlink ref="F104" location="데이터!A1" display="▶▶"/>
+    <hyperlink ref="E104" location="표지!A1" display="처음으로"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8651,8 +8965,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650EE039-054F-4AD6-BFA0-73C8A2FC54CA}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8664,18 +8978,18 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="117" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
@@ -8684,7 +8998,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="123" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B4" s="124"/>
       <c r="C4" s="124"/>
@@ -8693,12 +9007,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="117" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B7" s="118"/>
       <c r="C7" s="118"/>
@@ -8708,7 +9022,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="120" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
@@ -8718,7 +9032,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="123" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B9" s="124"/>
       <c r="C9" s="124"/>
@@ -8728,12 +9042,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="117" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
@@ -8742,7 +9056,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="120" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B13" s="121"/>
       <c r="C13" s="121"/>
@@ -8751,7 +9065,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="123" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B14" s="124"/>
       <c r="C14" s="124"/>
@@ -8760,31 +9074,31 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="140" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="129" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B17" s="118"/>
       <c r="C17" s="119"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="133" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B18" s="124"/>
       <c r="C18" s="125"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="117" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B21" s="118"/>
       <c r="C21" s="118"/>
@@ -8796,7 +9110,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="123" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
@@ -8819,7 +9133,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="142" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8832,7 +9146,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="117" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B25" s="118"/>
       <c r="C25" s="118"/>
@@ -8844,7 +9158,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="123" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B26" s="124"/>
       <c r="C26" s="124"/>
@@ -8856,17 +9170,17 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="87" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="143" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B69" s="144"/>
       <c r="C69" s="144"/>
@@ -8877,7 +9191,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="146" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B70" s="147"/>
       <c r="C70" s="147"/>
@@ -8888,7 +9202,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="146" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B71" s="147"/>
       <c r="C71" s="147"/>
@@ -8899,7 +9213,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="149" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B72" s="150"/>
       <c r="C72" s="150"/>
@@ -8910,7 +9224,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="117" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B74" s="118"/>
       <c r="C74" s="118"/>
@@ -8922,7 +9236,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="120" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B75" s="121"/>
       <c r="C75" s="121"/>
@@ -8946,17 +9260,17 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="140" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="143" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B79" s="144"/>
       <c r="C79" s="144"/>
       <c r="D79" s="144" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E79" s="144"/>
       <c r="F79" s="144"/>
@@ -8964,12 +9278,12 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="146" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B80" s="147"/>
       <c r="C80" s="147"/>
       <c r="D80" s="147" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E80" s="147"/>
       <c r="F80" s="147"/>
@@ -8977,42 +9291,42 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="149" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B81" s="150"/>
       <c r="C81" s="150"/>
       <c r="D81" s="150" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E81" s="150"/>
       <c r="F81" s="150"/>
       <c r="G81" s="151"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="D85" s="159"/>
-      <c r="E85" s="160" t="s">
-        <v>369</v>
-      </c>
-      <c r="F85" s="159"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" s="152"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="D86" s="161" t="s">
-        <v>367</v>
-      </c>
-      <c r="E86" s="160" t="s">
-        <v>370</v>
-      </c>
-      <c r="F86" s="162" t="s">
-        <v>368</v>
+      <c r="D86" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" s="153" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" s="155" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E85" location="데이터!A1" display="▲" xr:uid="{A00FC60F-F7EB-49E8-B29D-ABD029151C6F}"/>
-    <hyperlink ref="D86" location="데이터프레임!A1" display="◀◀" xr:uid="{537A3BB1-5347-4107-9D4D-4134D78A90A0}"/>
-    <hyperlink ref="F86" location="표지!A1" display="▶▶" xr:uid="{EEEB238D-D09E-4EF1-84C6-407B3AE45B02}"/>
-    <hyperlink ref="E86" location="표지!A1" display="처음으로" xr:uid="{E3E70058-34D1-45B6-94FF-E08C0FC6EBC3}"/>
+    <hyperlink ref="E85" location="데이터!A1" display="▲"/>
+    <hyperlink ref="D86" location="데이터프레임!A1" display="◀◀"/>
+    <hyperlink ref="F86" location="표지!A1" display="▶▶"/>
+    <hyperlink ref="E86" location="표지!A1" display="처음으로"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9021,49 +9335,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <CultureName xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <AppVersion xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Invited_Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <NotebookType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <FolderType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Owner xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Templates xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9424,27 +9701,55 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <CultureName xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <AppVersion xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Invited_Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <NotebookType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <FolderType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Owner xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Invited_Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Templates xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7167D255-8468-4A80-B5A9-A49D2A754FAD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC08C5A-B944-4721-A2F4-BAE35D876595}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a57bc816-912c-4177-a212-f3f81d5f2d17"/>
-    <ds:schemaRef ds:uri="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9469,9 +9774,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC08C5A-B944-4721-A2F4-BAE35D876595}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7167D255-8468-4A80-B5A9-A49D2A754FAD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a57bc816-912c-4177-a212-f3f81d5f2d17"/>
+    <ds:schemaRef ds:uri="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Adds/Ch03_data.xlsx
+++ b/Adds/Ch03_data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MIS\BDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dae Ho Kim\OneDrive - 목원대학교\김대호(insoo_notebook)\강좌\BigDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_FF824F72D2FF0F8FFCBA4024A7C2ED6D630971D3" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{88A8A14D-B3EF-4C48-B831-7D149B8B36CE}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="150" windowWidth="10725" windowHeight="16425" activeTab="1"/>
+    <workbookView xWindow="19090" yWindow="150" windowWidth="10720" windowHeight="16420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="6" r:id="rId1"/>
     <sheet name="벡터" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="배열" sheetId="2" r:id="rId4"/>
-    <sheet name="리스트" sheetId="3" r:id="rId5"/>
-    <sheet name="데이터프레임" sheetId="4" r:id="rId6"/>
-    <sheet name="데이터" sheetId="5" r:id="rId7"/>
+    <sheet name="배열" sheetId="2" r:id="rId3"/>
+    <sheet name="리스트" sheetId="3" r:id="rId4"/>
+    <sheet name="데이터프레임" sheetId="4" r:id="rId5"/>
+    <sheet name="데이터" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="399">
   <si>
     <t>x</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2596,13 +2596,134 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>x[x&gt;=2 &amp; x&lt;=4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen[Ramen == "Cup"] &lt;- "x"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen[Ramen == "Bowl"] &lt;- "Cup"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen[Ramen == "x"] &lt;- "Bowl"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 함수 적용 : apply(x, MARGIN, FUN, …)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(x, 1, sum)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(x, 1, mean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(x, 1, sd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(x, 2, sum)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(x, 2, mean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply(x, 2, sd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 행단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 열단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">x1 &lt;- seq(0, 1, length.out = 11) </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FF0000FF"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
@@ -2612,8 +2733,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -2622,8 +2744,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
@@ -2631,8 +2754,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -2641,8 +2765,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
@@ -2650,8 +2775,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -2660,80 +2786,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>x[x&gt;=2 &amp; x&lt;=4]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bowl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bowl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bowl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bowl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen[Ramen == "Cup"] &lt;- "x"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen[Ramen == "Bowl"] &lt;- "Cup"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen[Ramen == "x"] &lt;- "Bowl"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ramen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>summary(x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2886,7 +2944,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -2894,15 +2952,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -3618,7 +3687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4090,6 +4159,42 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4108,34 +4213,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4479,83 +4557,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B1:D3" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B1:D3" totalsRowShown="0" dataDxfId="9">
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Age" dataDxfId="7"/>
-    <tableColumn id="3" name="Address" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Address" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표1_3" displayName="표1_3" ref="C23:F25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표1_3" displayName="표1_3" ref="C23:F25" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="5" name="Dept" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dept" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_34" displayName="표1_34" ref="C35:F38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="표1_34" displayName="표1_34" ref="C35:F38" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="5" name="Dept" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dept" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_345" displayName="표1_345" ref="C45:F46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="표1_345" displayName="표1_345" ref="C45:F46" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="5" name="Dept" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dept" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표1_346" displayName="표1_346" ref="C52:F54" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="표1_346" displayName="표1_346" ref="C52:F54" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="5" name="Dept" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Dept" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표1_347" displayName="표1_347" ref="C70:F73" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표1_347" displayName="표1_347" ref="C70:F73" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="5" name="Dept" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dept" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표1_3478" displayName="표1_3478" ref="C75:F78" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표1_3478" displayName="표1_3478" ref="C75:F78" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="5" name="Dept" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Dept" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4857,7 +4935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D22:G28"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
@@ -4870,42 +4948,42 @@
   </cols>
   <sheetData>
     <row r="22" spans="4:7">
-      <c r="E22" s="157" t="s">
+      <c r="E22" s="169" t="s">
         <v>357</v>
       </c>
-      <c r="F22" s="158"/>
+      <c r="F22" s="170"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="E23" s="159" t="s">
+      <c r="E23" s="171" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="160"/>
+      <c r="F23" s="172"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="E24" s="159" t="s">
+      <c r="E24" s="171" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="172"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="E25" s="159" t="s">
+      <c r="E25" s="171" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="160"/>
+      <c r="F25" s="172"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="E26" s="161" t="s">
+      <c r="E26" s="173" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="162"/>
+      <c r="F26" s="174"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="163" t="s">
+      <c r="D28" s="168" t="s">
         <v>362</v>
       </c>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4918,11 +4996,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E22" location="벡터!A1" display="1. 벡터"/>
-    <hyperlink ref="E23" location="배열!A1" display="2. 배열"/>
-    <hyperlink ref="E24" location="리스트!A1" display="3. 리스트"/>
-    <hyperlink ref="E25" location="데이터프레임!A1" display="4. 데이터 프레임"/>
-    <hyperlink ref="E26" location="데이터!A1" display="5. 데이터"/>
+    <hyperlink ref="E22" location="벡터!A1" display="1. 벡터" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E23" location="배열!A1" display="2. 배열" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E24" location="리스트!A1" display="3. 리스트" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E25" location="데이터프레임!A1" display="4. 데이터 프레임" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E26" location="데이터!A1" display="5. 데이터" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4930,17 +5008,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
@@ -5452,8 +5530,8 @@
       <c r="A54" s="89"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="89" t="s">
-        <v>368</v>
+      <c r="A55" s="175" t="s">
+        <v>398</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>270</v>
@@ -5676,7 +5754,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="89" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>0</v>
@@ -5804,85 +5882,85 @@
       <c r="C105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="165" t="s">
-        <v>370</v>
-      </c>
-      <c r="F105" s="166" t="s">
-        <v>375</v>
-      </c>
-      <c r="G105" s="167" t="s">
-        <v>380</v>
-      </c>
-      <c r="H105" s="168"/>
+      <c r="E105" s="158" t="s">
+        <v>369</v>
+      </c>
+      <c r="F105" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="G105" s="160" t="s">
+        <v>379</v>
+      </c>
+      <c r="H105" s="161"/>
     </row>
     <row r="106" spans="1:8" ht="17.25" thickTop="1">
       <c r="C106" s="10">
         <v>10</v>
       </c>
-      <c r="E106" s="164" t="s">
-        <v>371</v>
+      <c r="E106" s="157" t="s">
+        <v>370</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="G106" s="169" t="s">
-        <v>383</v>
-      </c>
-      <c r="H106" s="170"/>
+        <v>375</v>
+      </c>
+      <c r="G106" s="162" t="s">
+        <v>382</v>
+      </c>
+      <c r="H106" s="163"/>
     </row>
     <row r="107" spans="1:8">
       <c r="C107" s="11">
         <v>20</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F107" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="G107" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="H107" s="170"/>
+        <v>376</v>
+      </c>
+      <c r="G107" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="H107" s="163"/>
     </row>
     <row r="108" spans="1:8">
       <c r="C108" s="10">
         <v>10</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F108" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="G108" s="169" t="s">
-        <v>375</v>
-      </c>
-      <c r="H108" s="170"/>
+        <v>377</v>
+      </c>
+      <c r="G108" s="162" t="s">
+        <v>374</v>
+      </c>
+      <c r="H108" s="163"/>
     </row>
     <row r="109" spans="1:8">
       <c r="C109" s="10">
         <v>10</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F109" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="G109" s="169" t="s">
-        <v>382</v>
-      </c>
-      <c r="H109" s="170"/>
+        <v>378</v>
+      </c>
+      <c r="G109" s="162" t="s">
+        <v>381</v>
+      </c>
+      <c r="H109" s="163"/>
     </row>
     <row r="110" spans="1:8" ht="17.25" thickBot="1">
       <c r="C110" s="10">
         <v>10</v>
       </c>
-      <c r="G110" s="171" t="s">
-        <v>384</v>
-      </c>
-      <c r="H110" s="172"/>
+      <c r="G110" s="164" t="s">
+        <v>383</v>
+      </c>
+      <c r="H110" s="165"/>
     </row>
     <row r="111" spans="1:8">
       <c r="C111" s="84"/>
@@ -5994,7 +6072,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6230,10 +6308,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C157" location="벡터!A1" display="▲"/>
-    <hyperlink ref="B158" location="표지!A1" display="◀◀"/>
-    <hyperlink ref="D158" location="배열!A1" display="▶▶"/>
-    <hyperlink ref="C158" location="표지!A1" display="처음으로"/>
+    <hyperlink ref="C157" location="벡터!A1" display="▲" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B158" location="표지!A1" display="◀◀" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D158" location="배열!A1" display="▶▶" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C158" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6241,174 +6319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>A2-5.5</f>
-        <v>-4.5</v>
-      </c>
-      <c r="C2">
-        <f>B2^2</f>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">A3-5.5</f>
-        <v>-3.5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C11" si="1">B3^2</f>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12">
-        <f>SUM(C2:C11)</f>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13">
-        <f>C12/(10-1)</f>
-        <v>9.1666666666666661</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
-  <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7297,7 +7212,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="17.25" thickBot="1">
+    <row r="97" spans="1:10" ht="17.25" thickBot="1">
       <c r="B97" s="2" t="s">
         <v>245</v>
       </c>
@@ -7323,7 +7238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="1:10">
       <c r="B98" s="14" t="s">
         <v>242</v>
       </c>
@@ -7349,7 +7264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="17.25" thickBot="1">
+    <row r="99" spans="1:10" ht="17.25" thickBot="1">
       <c r="B99" s="14" t="s">
         <v>243</v>
       </c>
@@ -7375,39 +7290,123 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="152"/>
-      <c r="C103" s="156" t="s">
+    <row r="101" spans="1:10">
+      <c r="A101" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B103" s="166" t="s">
+        <v>397</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="B104" s="167" t="s">
+        <v>397</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" s="167" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="89" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="90" t="s">
+        <v>391</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="152"/>
+      <c r="C117" s="156" t="s">
         <v>365</v>
       </c>
-      <c r="D103" s="152"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="154" t="s">
+      <c r="D117" s="152"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="C104" s="153" t="s">
+      <c r="C118" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="D104" s="155" t="s">
+      <c r="D118" s="155" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C103" location="배열!A1" display="▲"/>
-    <hyperlink ref="C104" location="표지!A1" display="처음으로"/>
-    <hyperlink ref="D104" location="리스트!A1" display="▶▶"/>
-    <hyperlink ref="B104" location="벡터!A1" display="◀◀"/>
+    <hyperlink ref="C117" location="배열!A1" display="▲" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C118" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D118" location="리스트!A1" display="▶▶" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B118" location="벡터!A1" display="◀◀" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -8118,18 +8117,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D94" location="리스트!A1" display="▲"/>
-    <hyperlink ref="C95" location="배열!A1" display="◀◀"/>
-    <hyperlink ref="E95" location="데이터프레임!A1" display="▶▶"/>
-    <hyperlink ref="D95" location="표지!A1" display="처음으로"/>
+    <hyperlink ref="D94" location="리스트!A1" display="▲" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C95" location="배열!A1" display="◀◀" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E95" location="데이터프레임!A1" display="▶▶" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D95" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8946,10 +8945,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E103" location="데이터프레임!A1" display="▲"/>
-    <hyperlink ref="D104" location="리스트!A1" display="◀◀"/>
-    <hyperlink ref="F104" location="데이터!A1" display="▶▶"/>
-    <hyperlink ref="E104" location="표지!A1" display="처음으로"/>
+    <hyperlink ref="E103" location="데이터프레임!A1" display="▲" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D104" location="리스트!A1" display="◀◀" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F104" location="데이터!A1" display="▶▶" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E104" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8965,8 +8964,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9323,10 +9322,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E85" location="데이터!A1" display="▲"/>
-    <hyperlink ref="D86" location="데이터프레임!A1" display="◀◀"/>
-    <hyperlink ref="F86" location="표지!A1" display="▶▶"/>
-    <hyperlink ref="E86" location="표지!A1" display="처음으로"/>
+    <hyperlink ref="E85" location="데이터!A1" display="▲" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D86" location="데이터프레임!A1" display="◀◀" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="F86" location="표지!A1" display="▶▶" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E86" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Adds/Ch03_data.xlsx
+++ b/Adds/Ch03_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dae Ho Kim\OneDrive - 목원대학교\김대호(insoo_notebook)\강좌\BigDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_FF824F72D2FF0F8FFCBA4024A7C2ED6D630971D3" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{88A8A14D-B3EF-4C48-B831-7D149B8B36CE}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="11_FF824F72D2FF0F8FFCBA4024A7C2ED6D630971D3" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C89186CD-0B99-4072-A8B7-DAA2ADE3FF98}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="150" windowWidth="10720" windowHeight="16420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="150" windowWidth="10720" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="409">
   <si>
     <t>x</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2786,12 +2786,51 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>I. 벡터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>II. 배열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://statkclee.github.io/r4inf/r-list.html</t>
+  </si>
+  <si>
+    <t>III. 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV. 데이터 프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V. 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 변수 정의 : c( ) 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 결측치 : NULL, NA(not available), NaN(Not a Number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 배열변수 만들기 : array( ) 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 벡터 결합에 의한 배열 만들기 : cbind( ), rbind( ) 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2975,8 +3014,27 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3022,6 +3080,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3687,7 +3751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4192,29 +4256,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4501,13 +4607,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>35807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4557,7 +4663,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B1:D3" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B11:D13" totalsRowShown="0" dataDxfId="9">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age" dataDxfId="7"/>
@@ -4568,7 +4674,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표1_3" displayName="표1_3" ref="C23:F25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표1_3" displayName="표1_3" ref="C33:F35" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Age"/>
@@ -4580,7 +4686,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="표1_34" displayName="표1_34" ref="C35:F38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="표1_34" displayName="표1_34" ref="C45:F48" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Age"/>
@@ -4592,7 +4698,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="표1_345" displayName="표1_345" ref="C45:F46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="표1_345" displayName="표1_345" ref="C55:F56" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Age"/>
@@ -4604,7 +4710,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="표1_346" displayName="표1_346" ref="C52:F54" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="표1_346" displayName="표1_346" ref="C62:F64" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Age"/>
@@ -4616,7 +4722,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표1_347" displayName="표1_347" ref="C70:F73" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표1_347" displayName="표1_347" ref="C80:F83" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Age"/>
@@ -4628,7 +4734,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표1_3478" displayName="표1_3478" ref="C75:F78" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표1_3478" displayName="표1_3478" ref="C85:F88" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Age"/>
@@ -4938,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D22:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4948,42 +5054,42 @@
   </cols>
   <sheetData>
     <row r="22" spans="4:7">
-      <c r="E22" s="169" t="s">
+      <c r="E22" s="170" t="s">
         <v>357</v>
       </c>
-      <c r="F22" s="170"/>
+      <c r="F22" s="171"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="E23" s="171" t="s">
+      <c r="E23" s="172" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="172"/>
+      <c r="F23" s="173"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="E24" s="171" t="s">
+      <c r="E24" s="172" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="172"/>
+      <c r="F24" s="173"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="172" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="172"/>
+      <c r="F25" s="173"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="E26" s="173" t="s">
+      <c r="E26" s="174" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="174"/>
+      <c r="F26" s="175"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="169" t="s">
         <v>362</v>
       </c>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5009,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5027,788 +5133,813 @@
     <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
+      <c r="A1" s="184" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="186"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="178" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="178" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A4" s="178" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A5" s="178" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A6" s="178" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A7" s="178" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A8" s="178" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="180"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A9" s="178" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A10" s="181" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="88" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C17" s="42">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="102" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C18" s="42">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="42">
+    <row r="19" spans="1:10">
+      <c r="C19" s="42">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="6" spans="1:10">
-      <c r="A6" s="88" t="s">
+    <row r="20" spans="1:10" ht="17.25" thickBot="1"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C21" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D21" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E21" s="45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="89" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C22" s="46">
         <v>1</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D22" s="42">
         <v>2</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E22" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="90" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C23" s="46">
         <v>2</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D23" s="42">
         <v>3</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E23" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="C9" s="46">
+    <row r="24" spans="1:10">
+      <c r="C24" s="46">
         <v>3</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D24" s="42">
         <v>4</v>
       </c>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" thickBot="1">
-      <c r="C10" s="48">
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" thickBot="1">
+      <c r="C25" s="48">
         <v>4</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D25" s="49">
         <v>5</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+      <c r="E25" s="50"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="88" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I28" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J28" s="81" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="89" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="89" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="89" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="89" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="89" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="89" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="90" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C37" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D37" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E37" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="88" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C38" s="42">
         <v>1</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D38" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E38" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="42">
-        <v>2</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="42">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="42">
-        <v>3</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="42">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="98" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="42">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="C31" s="42">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="C32" s="42">
-        <v>30</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="89" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="C38" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="89" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C39" s="42">
+        <v>2</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="42">
+        <v>1</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="C40" s="42">
+        <v>3</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="42">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="90" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" s="5"/>
+      <c r="A41" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="5"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="42">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="C46" s="42">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="42">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="92" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C59" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="89"/>
-      <c r="C45" s="42">
+    <row r="60" spans="1:8">
+      <c r="A60" s="89"/>
+      <c r="C60" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="89"/>
-      <c r="C46" s="42">
+    <row r="61" spans="1:8">
+      <c r="A61" s="89"/>
+      <c r="C61" s="42">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="89"/>
-      <c r="C47" s="42">
+    <row r="62" spans="1:8">
+      <c r="A62" s="89"/>
+      <c r="C62" s="42">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="89"/>
-      <c r="C48" s="42">
+    <row r="63" spans="1:8">
+      <c r="A63" s="89"/>
+      <c r="C63" s="42">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A49" s="89"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="89" t="s">
+    <row r="64" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A64" s="89"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C65" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="89" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C66" s="54">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="89" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C67" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A53" s="89"/>
-      <c r="C53" s="55">
+    <row r="68" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A68" s="89"/>
+      <c r="C68" s="55">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="89"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="175" t="s">
+    <row r="69" spans="1:12">
+      <c r="A69" s="89"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="168" t="s">
         <v>398</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="89"/>
-      <c r="C56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="100" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="89"/>
+      <c r="C71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E72" s="4">
         <v>2</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F72" s="1">
         <v>3</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G72" s="4">
         <v>4</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H72" s="1">
         <v>1</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I72" s="4">
         <v>2</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J72" s="1">
         <v>3</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K72" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="100" t="s">
+    <row r="73" spans="1:12">
+      <c r="A73" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="100" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="101" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="2" t="s">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="C63" s="42" t="s">
+    <row r="78" spans="1:12">
+      <c r="C78" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="99" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B79" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C79" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="B65" s="14" t="s">
+    <row r="80" spans="1:12">
+      <c r="B80" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C80" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="B66" s="14" t="s">
+    <row r="81" spans="1:3">
+      <c r="B81" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C81" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="14" t="s">
+    <row r="82" spans="1:3">
+      <c r="B82" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C82" s="42">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="14" t="s">
+    <row r="83" spans="1:3">
+      <c r="B83" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C83" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="88" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="89" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="90" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C88" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="C74" s="1">
+    <row r="89" spans="1:3">
+      <c r="C89" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="88" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="89"/>
-      <c r="C78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="89"/>
-      <c r="C79" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="89"/>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="89"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="89" t="s">
-        <v>368</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="89"/>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="89"/>
-      <c r="C84" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="90"/>
-      <c r="C85" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="89"/>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="89"/>
-      <c r="C92" s="10">
-        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5832,486 +5963,587 @@
     <row r="96" spans="1:3">
       <c r="A96" s="89"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:3">
       <c r="A97" s="89" t="s">
-        <v>32</v>
+        <v>368</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:3">
       <c r="A98" s="89"/>
       <c r="C98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="89"/>
-      <c r="C99" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="89"/>
-      <c r="C100" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="89"/>
-      <c r="C101" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="90"/>
-      <c r="C102" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A104" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A105" s="91" t="s">
-        <v>288</v>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="90"/>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="88" t="s">
+        <v>31</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="158" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="89"/>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="89"/>
+      <c r="C107" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="89"/>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="89"/>
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="89"/>
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="89"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="89"/>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="89"/>
+      <c r="C114" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="89"/>
+      <c r="C115" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="89"/>
+      <c r="C116" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="90"/>
+      <c r="C117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A119" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A120" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="158" t="s">
         <v>369</v>
       </c>
-      <c r="F105" s="159" t="s">
+      <c r="F120" s="159" t="s">
         <v>374</v>
       </c>
-      <c r="G105" s="160" t="s">
+      <c r="G120" s="160" t="s">
         <v>379</v>
       </c>
-      <c r="H105" s="161"/>
-    </row>
-    <row r="106" spans="1:8" ht="17.25" thickTop="1">
-      <c r="C106" s="10">
+      <c r="H120" s="161"/>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" thickTop="1">
+      <c r="C121" s="10">
         <v>10</v>
       </c>
-      <c r="E106" s="157" t="s">
+      <c r="E121" s="157" t="s">
         <v>370</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F121" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="G106" s="162" t="s">
+      <c r="G121" s="162" t="s">
         <v>382</v>
       </c>
-      <c r="H106" s="163"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="C107" s="11">
+      <c r="H121" s="163"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="C122" s="11">
         <v>20</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E122" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="F107" s="86" t="s">
+      <c r="F122" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="G107" s="162" t="s">
+      <c r="G122" s="162" t="s">
         <v>380</v>
       </c>
-      <c r="H107" s="163"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="C108" s="10">
+      <c r="H122" s="163"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="C123" s="10">
         <v>10</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E123" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F108" s="86" t="s">
+      <c r="F123" s="86" t="s">
         <v>377</v>
       </c>
-      <c r="G108" s="162" t="s">
+      <c r="G123" s="162" t="s">
         <v>374</v>
       </c>
-      <c r="H108" s="163"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="C109" s="10">
+      <c r="H123" s="163"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="C124" s="10">
         <v>10</v>
       </c>
-      <c r="E109" s="42" t="s">
+      <c r="E124" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="F109" s="86" t="s">
+      <c r="F124" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="G109" s="162" t="s">
+      <c r="G124" s="162" t="s">
         <v>381</v>
       </c>
-      <c r="H109" s="163"/>
-    </row>
-    <row r="110" spans="1:8" ht="17.25" thickBot="1">
-      <c r="C110" s="10">
+      <c r="H124" s="163"/>
+    </row>
+    <row r="125" spans="1:8" ht="17.25" thickBot="1">
+      <c r="C125" s="10">
         <v>10</v>
       </c>
-      <c r="G110" s="164" t="s">
+      <c r="G125" s="164" t="s">
         <v>383</v>
       </c>
-      <c r="H110" s="165"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="C111" s="84"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="2" t="s">
+      <c r="H125" s="165"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="C126" s="84"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="C113" s="83" t="s">
+    <row r="128" spans="1:8">
+      <c r="C128" s="83" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="91" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="83">
+      <c r="C129" s="83">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="C115" s="83">
+    <row r="130" spans="1:3">
+      <c r="C130" s="83">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="C116" s="83">
+    <row r="131" spans="1:3">
+      <c r="C131" s="83">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="C117" s="83">
+    <row r="132" spans="1:3">
+      <c r="C132" s="83">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="C118" s="83">
+    <row r="133" spans="1:3">
+      <c r="C133" s="83">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="C119" s="83">
+    <row r="134" spans="1:3">
+      <c r="C134" s="83">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="C120" s="83">
+    <row r="135" spans="1:3">
+      <c r="C135" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="C121" s="83">
+    <row r="136" spans="1:3">
+      <c r="C136" s="83">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="C122" s="83">
+    <row r="137" spans="1:3">
+      <c r="C137" s="83">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="C123" s="83">
+    <row r="138" spans="1:3">
+      <c r="C138" s="83">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="96" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="97" t="s">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="97" t="s">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="97" t="s">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="97" t="s">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="97" t="s">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="98" t="s">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="97" t="s">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="97" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="2" t="s">
+    <row r="149" spans="1:12">
+      <c r="A149" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C134" s="42" t="s">
+      <c r="C149" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D134" s="42" t="s">
+      <c r="D149" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="L149" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="88" t="s">
+    <row r="150" spans="1:12">
+      <c r="A150" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C150" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D135" s="42" t="s">
+      <c r="D150" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L135" s="1" t="s">
+      <c r="L150" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="89" t="s">
+    <row r="151" spans="1:12">
+      <c r="A151" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C151" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="42" t="s">
+      <c r="D151" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="89" t="s">
+    <row r="152" spans="1:12">
+      <c r="A152" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C137" s="42" t="s">
+      <c r="C152" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D137" s="42" t="s">
+      <c r="D152" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L137" s="1" t="s">
+      <c r="L152" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="89" t="s">
+    <row r="153" spans="1:12">
+      <c r="A153" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="C138" s="42" t="s">
+      <c r="C153" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="42" t="s">
+      <c r="D153" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L138" s="1" t="s">
+      <c r="L153" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="89" t="s">
+    <row r="154" spans="1:12">
+      <c r="A154" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C139" s="42" t="s">
+      <c r="C154" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D139" s="42" t="s">
+      <c r="D154" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="L154" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="90" t="s">
+    <row r="155" spans="1:12">
+      <c r="A155" s="90" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="2" t="s">
+    <row r="158" spans="1:12">
+      <c r="A158" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="88" t="s">
+    <row r="159" spans="1:12">
+      <c r="A159" s="88" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="89" t="s">
+    <row r="160" spans="1:12">
+      <c r="A160" s="89" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="89"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="89" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="89"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="B147" s="85" t="s">
+      <c r="B162" s="85" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="89"/>
-      <c r="B148" s="85">
+    <row r="163" spans="1:4">
+      <c r="A163" s="89"/>
+      <c r="B163" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="89"/>
-      <c r="B149" s="85">
+    <row r="164" spans="1:4">
+      <c r="A164" s="89"/>
+      <c r="B164" s="85">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="89"/>
-      <c r="B150" s="85">
+    <row r="165" spans="1:4">
+      <c r="A165" s="89"/>
+      <c r="B165" s="85">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="89"/>
-      <c r="B151" s="85" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="89"/>
+      <c r="B166" s="85" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="89"/>
-      <c r="B152" s="85">
+    <row r="167" spans="1:4">
+      <c r="A167" s="89"/>
+      <c r="B167" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="89"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="89" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="89"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="89" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="90" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="90" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="B157" s="152"/>
-      <c r="C157" s="153" t="s">
+    <row r="172" spans="1:4">
+      <c r="B172" s="152"/>
+      <c r="C172" s="153" t="s">
         <v>365</v>
       </c>
-      <c r="D157" s="152"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="B158" s="154" t="s">
+      <c r="D172" s="152"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="B173" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="C158" s="153" t="s">
+      <c r="C173" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="D158" s="155" t="s">
+      <c r="D173" s="155" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C157" location="벡터!A1" display="▲" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B158" location="표지!A1" display="◀◀" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D158" location="배열!A1" display="▶▶" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C158" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C172" location="벡터!A1" display="▲" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B173" location="표지!A1" display="◀◀" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D173" location="배열!A1" display="▶▶" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C173" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A2:E2" location="벡터!A16" display="1. 변수 정의 : c( ) 사용" xr:uid="{D91B165C-AD64-472E-BBD8-F3FB71BEEC7F}"/>
+    <hyperlink ref="A3:E3" location="벡터!A27" display="2. 산술연산자" xr:uid="{AFEE679B-951C-44D7-8EE9-ECD0F121583F}"/>
+    <hyperlink ref="A4:E4" location="벡터!A43" display="3. 비교연산자 ( &gt;=, &gt;, ==, &lt;, &lt;= ) =&gt; 결과는 'TRUE' 또는 'FALSE'" xr:uid="{55613FCD-3E50-401A-907F-DFC6F9B57A99}"/>
+    <hyperlink ref="A5:E5" location="벡터!A50" display="4. 논리연산자 ( |, &amp; )" xr:uid="{F61DC7DF-1F73-484D-9A09-33A675F9BBAA}"/>
+    <hyperlink ref="A6:E6" location="벡터!A58" display="5. 반복적 벡터 만들기 : seq(), rep()" xr:uid="{4D5DFB89-00AD-451C-8128-B10FA8021D8C}"/>
+    <hyperlink ref="A7:E7" location="벡터!A77" display="6. 벡터 요소의 확인" xr:uid="{15972B78-2493-4CCC-AAAA-2F63828D60A3}"/>
+    <hyperlink ref="A8:E8" location="벡터!A102" display="7. 벡터 요소 값의 수정" xr:uid="{AC8E4ECA-8367-4644-9A7E-BD5F17295CA9}"/>
+    <hyperlink ref="A9:E9" location="벡터!A127" display="8. 함수의 사용" xr:uid="{08EFCC9A-9B10-471E-8785-E4EAA9337F8F}"/>
+    <hyperlink ref="A10:E10" location="벡터!A158" display="9. 결측치 : NULL, NA(not available), NaN(Not a Number)" xr:uid="{22562551-3EFD-425A-AD47-9B9A7D67C62F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6320,10 +6552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6331,415 +6563,374 @@
     <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
+      <c r="A1" s="184" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="178" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="176"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="178" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A4" s="178" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="180"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A5" s="178" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="180"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A6" s="178" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A7" s="178" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A8" s="178" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A9" s="181" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A16" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="88" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C18" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D18" s="42">
         <v>3</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E18" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A4" s="89"/>
-      <c r="C4" s="48">
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A19" s="89"/>
+      <c r="C19" s="48">
         <v>2</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D19" s="49">
         <v>4</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E19" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A5" s="89"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="90" t="s">
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A20" s="89"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="46">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="46">
         <v>2</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D22" s="42">
         <v>6</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E22" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1">
-      <c r="C8" s="48">
+    <row r="23" spans="1:5" ht="17.25" thickBot="1">
+      <c r="C23" s="48">
         <v>4</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D23" s="49">
         <v>8</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E23" s="50">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A10" s="14" t="s">
+    <row r="25" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A25" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="91" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B26" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="46">
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="46">
         <v>1</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D27" s="42">
         <v>3</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E27" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1">
-      <c r="C13" s="48">
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
+      <c r="C28" s="48">
         <v>2</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D28" s="49">
         <v>4</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E28" s="50">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="14" t="s">
+    <row r="31" spans="1:5">
+      <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C31" s="42">
         <v>2</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D31" s="42">
         <v>6</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E31" s="42">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="14" t="s">
+    <row r="32" spans="1:5">
+      <c r="B32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C32" s="42">
         <v>4</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D32" s="42">
         <v>8</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E32" s="42">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="14"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+    <row r="33" spans="1:5">
+      <c r="B33" s="14"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="88" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D36" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E36" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="89"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="89" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="89"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="89"/>
-      <c r="C24" s="1">
+    <row r="39" spans="1:5">
+      <c r="A39" s="89"/>
+      <c r="C39" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="89"/>
-      <c r="C25" s="1">
+    <row r="40" spans="1:5">
+      <c r="A40" s="89"/>
+      <c r="C40" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="89"/>
-      <c r="C26" s="14" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="89"/>
+      <c r="C41" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="89" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C42" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="89"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="89" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="89"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="89"/>
-      <c r="B30" s="14" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="89"/>
+      <c r="B45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D45" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="89"/>
-      <c r="B31" s="14" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="89"/>
+      <c r="B46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D46" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="89"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="86">
-        <v>2</v>
-      </c>
-      <c r="D37" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" s="52">
-        <v>30</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="A47" s="89"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="C48" s="52">
-        <v>3</v>
-      </c>
-      <c r="D48" s="12">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5"/>
-      <c r="C49" s="52">
-        <v>3</v>
+      <c r="B49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -6750,655 +6941,788 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="86">
+        <v>2</v>
+      </c>
+      <c r="D52" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="52">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="52">
+        <v>3</v>
+      </c>
+      <c r="D63" s="12">
+        <v>30</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5"/>
+      <c r="C64" s="52">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="92" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="92" t="s">
         <v>314</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B68" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C68" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D68" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="69" t="s">
+      <c r="E68" s="69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="89"/>
-      <c r="B54" s="14" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="89"/>
+      <c r="B69" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D69" s="1">
         <v>6</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E69" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="89"/>
-      <c r="B55" s="14" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="89"/>
+      <c r="B70" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C70" s="1">
         <v>4</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D70" s="1">
         <v>8</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E70" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="89"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="93" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="89"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="93" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89"/>
-      <c r="B58" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="89"/>
+      <c r="B73" t="s">
         <v>0</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C73" t="s">
         <v>52</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D73" t="s">
         <v>53</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E73" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="89"/>
-      <c r="B59" s="69" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="89"/>
+      <c r="B74" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D74" s="1">
         <v>6</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E74" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="90"/>
-      <c r="B60" s="69" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="90"/>
+      <c r="B75" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C75" s="1">
         <v>4</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D75" s="1">
         <v>8</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E75" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="88" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C78" t="s">
         <v>52</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D78" t="s">
         <v>53</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E78" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="89"/>
-      <c r="B64" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="89"/>
+      <c r="B79" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D79" s="1">
         <v>6</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E79" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="89"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="89" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="89"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C81" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="89"/>
-      <c r="C67" s="1">
+    <row r="82" spans="1:6">
+      <c r="A82" s="89"/>
+      <c r="C82" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="90"/>
-      <c r="C68" s="1">
+    <row r="83" spans="1:6">
+      <c r="A83" s="90"/>
+      <c r="C83" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="14" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="94" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="94" t="s">
         <v>318</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B86" t="s">
         <v>0</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C86" t="s">
         <v>52</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D86" t="s">
         <v>53</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E86" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="95" t="s">
+    <row r="87" spans="1:6">
+      <c r="A87" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="B72" s="87" t="s">
+      <c r="B87" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C87" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D87" s="1">
         <v>6</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E87" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="87" t="s">
+    <row r="88" spans="1:6">
+      <c r="B88" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C88" s="1">
         <v>4</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D88" s="1">
         <v>8</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E88" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="B76" s="42" t="s">
+    <row r="91" spans="1:6">
+      <c r="B91" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D91" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F91" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="88" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="B77" s="85">
+      <c r="B92" s="85">
         <v>1</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D92" s="42">
         <v>5</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F92" s="42">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="89" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="B78" s="85">
+      <c r="B93" s="85">
         <v>2</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D93" s="42">
         <v>6</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F93" s="42">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="89" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="85">
+      <c r="B94" s="85">
         <v>3</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D94" s="42">
         <v>7</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F94" s="42">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="89"/>
-      <c r="B80" s="85">
+    <row r="95" spans="1:6">
+      <c r="A95" s="89"/>
+      <c r="B95" s="85">
         <v>4</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D95" s="42">
         <v>8</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F95" s="42">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="89"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="89" t="s">
+    <row r="96" spans="1:6">
+      <c r="A96" s="89"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B97" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D97" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="89"/>
-      <c r="B83" s="14" t="s">
+    <row r="98" spans="1:10">
+      <c r="A98" s="89"/>
+      <c r="B98" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D98" s="1">
         <v>5</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E98" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="89"/>
-      <c r="B84" s="14" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" s="89"/>
+      <c r="B99" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C99" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D99" s="1">
         <v>6</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E99" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="89"/>
-      <c r="B85" s="14" t="s">
+    <row r="100" spans="1:10">
+      <c r="A100" s="89"/>
+      <c r="B100" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C100" s="1">
         <v>3</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D100" s="1">
         <v>7</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E100" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="89"/>
-      <c r="B86" s="14" t="s">
+    <row r="101" spans="1:10">
+      <c r="A101" s="89"/>
+      <c r="B101" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C101" s="1">
         <v>4</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D101" s="1">
         <v>8</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E101" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="89"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="89" t="s">
+    <row r="102" spans="1:10">
+      <c r="A102" s="89"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B103" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C103" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D103" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E103" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F103" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="89"/>
-      <c r="B89" s="14" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" s="89"/>
+      <c r="B104" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C104" s="1">
         <v>1</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D104" s="1">
         <v>2</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E104" s="1">
         <v>3</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F104" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="89"/>
-      <c r="B90" s="14" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" s="89"/>
+      <c r="B105" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C105" s="1">
         <v>5</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D105" s="1">
         <v>6</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E105" s="1">
         <v>7</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F105" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="90"/>
-      <c r="B91" s="14" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" s="90"/>
+      <c r="B106" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C106" s="1">
         <v>9</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D106" s="1">
         <v>10</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E106" s="1">
         <v>11</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F106" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="80" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" s="80" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="91" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B110" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.25" thickBot="1">
-      <c r="B97" s="2" t="s">
+    <row r="112" spans="1:10" ht="17.25" thickBot="1">
+      <c r="B112" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C112" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D112" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E112" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H112" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="I97" s="14" t="s">
+      <c r="I112" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="J97" s="14" t="s">
+      <c r="J112" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="B98" s="14" t="s">
+    <row r="113" spans="1:10">
+      <c r="B113" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C98" s="43">
+      <c r="C113" s="43">
         <v>1</v>
       </c>
-      <c r="D98" s="44">
+      <c r="D113" s="44">
         <v>3</v>
       </c>
-      <c r="E98" s="45">
+      <c r="E113" s="45">
         <v>5</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G113" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H98" s="43">
+      <c r="H113" s="43">
         <v>7</v>
       </c>
-      <c r="I98" s="44">
+      <c r="I113" s="44">
         <v>9</v>
       </c>
-      <c r="J98" s="45">
+      <c r="J113" s="45">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.25" thickBot="1">
-      <c r="B99" s="14" t="s">
+    <row r="114" spans="1:10" ht="17.25" thickBot="1">
+      <c r="B114" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="48">
+      <c r="C114" s="48">
         <v>2</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D114" s="49">
         <v>4</v>
       </c>
-      <c r="E99" s="50">
+      <c r="E114" s="50">
         <v>6</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G114" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H99" s="48">
+      <c r="H114" s="48">
         <v>8</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I114" s="49">
         <v>10</v>
       </c>
-      <c r="J99" s="50">
+      <c r="J114" s="50">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="2" t="s">
+    <row r="116" spans="1:10">
+      <c r="A116" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="2" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="88" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="B103" s="166" t="s">
+      <c r="B118" s="166" t="s">
         <v>397</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="89" t="s">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="89" t="s">
         <v>387</v>
       </c>
-      <c r="B104" s="167" t="s">
+      <c r="B119" s="167" t="s">
         <v>397</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="90" t="s">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="B105" s="167" t="s">
+      <c r="B120" s="167" t="s">
         <v>397</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="2" t="s">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C122" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D122" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="E122" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="88" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" s="88" t="s">
         <v>389</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="89" t="s">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="89" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="90" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" s="152"/>
-      <c r="C117" s="156" t="s">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="152"/>
+      <c r="C132" s="156" t="s">
         <v>365</v>
       </c>
-      <c r="D117" s="152"/>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" s="154" t="s">
+      <c r="D132" s="152"/>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="C118" s="153" t="s">
+      <c r="C133" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="D118" s="155" t="s">
+      <c r="D133" s="155" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C117" location="배열!A1" display="▲" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C118" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D118" location="리스트!A1" display="▶▶" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B118" location="벡터!A1" display="◀◀" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C132" location="배열!A1" display="▲" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C133" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D133" location="리스트!A1" display="▶▶" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B133" location="벡터!A1" display="◀◀" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A2:D2" location="배열!A16" display="1. 배열변수 만들기 : array( ) 사용" xr:uid="{7537DB78-628E-4880-8AA2-24D34C271BB3}"/>
+    <hyperlink ref="A3:D3" location="배열!A30" display="2. 배열 색인" xr:uid="{1BE932AB-1D2C-4ADF-B402-AABDD7730EE5}"/>
+    <hyperlink ref="A4:D4" location="배열!A34" display="3. 배열 요소 값 확인" xr:uid="{3BB85678-F133-47E6-802C-CD38B7E91712}"/>
+    <hyperlink ref="A5:D5" location="배열!A55" display="4. 배열 요소의 값 수정" xr:uid="{734FEEEA-849E-46A9-AB5F-2106D3889445}"/>
+    <hyperlink ref="A6:D6" location="배열!A66" display="5. 배열의 행과 열에 이름 추가하기" xr:uid="{CE28FEE3-4D12-4009-9890-51F2B4FFAC5A}"/>
+    <hyperlink ref="A7:D7" location="배열!A90" display="6. 벡터 결합에 의한 배열 만들기 : cbind( ), rbind( ) 사용" xr:uid="{BD0EE831-A655-4A46-8480-8F52383913EF}"/>
+    <hyperlink ref="A8:D8" location="배열!A109" display="** 3차원 배열 만들기" xr:uid="{B8029959-3992-4741-8B85-424016EFE657}"/>
+    <hyperlink ref="A9:D9" location="배열!A116" display="7. 함수 적용 : apply(x, MARGIN, FUN, …)" xr:uid="{3CB42751-4AE2-4C86-B5F5-DE5509F3FB4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7407,9 +7731,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:G95"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -7419,1091 +7745,1140 @@
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="1:7" ht="21" thickBot="1">
+      <c r="A1" s="184" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="186"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A2" s="178" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A3" s="178" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="178" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="178" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A6" s="178" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A7" s="181" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="183"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+      <c r="B11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E11" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F11" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B3" s="36" t="s">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+      <c r="B12" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C12" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E12" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F12" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B4" s="36" t="s">
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+      <c r="B13" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C13" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D13" s="73">
         <v>20</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E13" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F13" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B5" s="36" t="s">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1">
+      <c r="B14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="55" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="25"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="25"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="103" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="106" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="106" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="108"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="109" t="s">
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="114" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B26" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C26" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="115"/>
-      <c r="B18" s="112" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="115"/>
+      <c r="B27" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C27" s="39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="115"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A20" s="115" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="115"/>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A29" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C29" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="115"/>
-      <c r="B21" s="113" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="115"/>
+      <c r="B30" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="115"/>
-      <c r="B22" s="112" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="115"/>
+      <c r="B31" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="115"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="115" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="115"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B33" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="E24" s="19" t="s">
+      <c r="C33" s="38"/>
+      <c r="E33" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="115"/>
-      <c r="B25" s="112" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="115"/>
+      <c r="B34" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C34" s="39" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="115"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A27" s="115" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="E27" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="115"/>
-      <c r="B28" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="116"/>
-      <c r="B29" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="115"/>
-      <c r="B32" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="115"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A34" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="115"/>
-      <c r="B35" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="115"/>
-      <c r="B36" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>123</v>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A36" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="E36" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="115"/>
+      <c r="B37" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="116"/>
+      <c r="B38" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A40" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="E38" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="115"/>
-      <c r="B39" s="112" t="s">
+      <c r="C40" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="115"/>
+      <c r="B41" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C41" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="115"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A41" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="E41" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="115"/>
-      <c r="B42" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="115"/>
-      <c r="B43" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="13"/>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A43" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="115"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="E45" s="13" t="s">
-        <v>143</v>
+      <c r="A45" s="115"/>
+      <c r="B45" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="115"/>
-      <c r="B46" s="112" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="E47" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="115"/>
+      <c r="B48" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C48" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="115"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A48" s="115" t="s">
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="115"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A50" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="E50" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="115"/>
+      <c r="B51" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="115"/>
+      <c r="B52" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="115"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="E54" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="115"/>
+      <c r="B55" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="115"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A57" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="E48" s="13" t="s">
+      <c r="C57" s="40"/>
+      <c r="E57" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="113" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="115"/>
+      <c r="B58" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="116"/>
-      <c r="B50" s="112" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="116"/>
+      <c r="B59" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="117" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="118"/>
-      <c r="C53" s="119"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="120" t="s">
+      <c r="B62" s="118"/>
+      <c r="C62" s="119"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="121"/>
-      <c r="C54" s="122"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="120" t="s">
+      <c r="B63" s="121"/>
+      <c r="C63" s="122"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="120" t="s">
+      <c r="B64" s="121"/>
+      <c r="C64" s="122"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="120" t="s">
+      <c r="B65" s="121"/>
+      <c r="C65" s="122"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="122"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="123" t="s">
+      <c r="B66" s="121"/>
+      <c r="C66" s="122"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="124"/>
-      <c r="C58" s="125"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="B67" s="124"/>
+      <c r="C67" s="125"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="126" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="127"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
+      <c r="B70" s="127"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="126" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="127"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="2" t="s">
+      <c r="B73" s="127"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A70" s="31" t="s">
+    <row r="78" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A79" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A71" s="128" t="s">
+    <row r="80" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A80" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B80" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="35" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G71" s="34"/>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A72" s="75" t="s">
+      <c r="G80" s="34"/>
+    </row>
+    <row r="81" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A81" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="76">
+      <c r="B81" s="27"/>
+      <c r="C81" s="76">
         <v>3</v>
       </c>
-      <c r="D72" s="76">
+      <c r="D81" s="76">
         <v>5</v>
       </c>
-      <c r="E72" s="77">
+      <c r="E81" s="77">
         <v>-2</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F81" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G81" s="30">
         <v>12.3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A73" s="75" t="s">
+    <row r="82" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A82" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="78">
+      <c r="B82" s="28"/>
+      <c r="C82" s="78">
         <v>9</v>
       </c>
-      <c r="D73" s="78">
+      <c r="D82" s="78">
         <v>1</v>
       </c>
-      <c r="E73" s="79">
+      <c r="E82" s="79">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A74" s="73" t="s">
+    <row r="83" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A83" s="73" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="2" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="117" t="s">
+    <row r="86" spans="1:7">
+      <c r="A86" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="119"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="120" t="s">
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="119"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="121"/>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
-      <c r="G78" s="122"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="123" t="s">
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="121"/>
+      <c r="G87" s="122"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="124"/>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="125"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="114" t="s">
+      <c r="B88" s="124"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="125"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="116" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C92" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="114" t="s">
+    <row r="94" spans="1:7">
+      <c r="A94" s="114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="116" t="s">
+    <row r="95" spans="1:7">
+      <c r="A95" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="117" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="119"/>
-      <c r="C88" t="s">
+      <c r="B97" s="119"/>
+      <c r="C97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="120" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="122"/>
-      <c r="C89" t="s">
+      <c r="B98" s="122"/>
+      <c r="C98" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="123" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" t="s">
+      <c r="B99" s="125"/>
+      <c r="C99" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="C94" s="152"/>
-      <c r="D94" s="153" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="177" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="C107" s="152"/>
+      <c r="D107" s="153" t="s">
         <v>365</v>
       </c>
-      <c r="E94" s="152"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="C95" s="154" t="s">
+      <c r="E107" s="152"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="C108" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="D95" s="153" t="s">
+      <c r="D108" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="E95" s="155" t="s">
+      <c r="E108" s="155" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D94" location="리스트!A1" display="▲" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C95" location="배열!A1" display="◀◀" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="E95" location="데이터프레임!A1" display="▶▶" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="D95" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D107" location="리스트!A1" display="▲" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C108" location="배열!A1" display="◀◀" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E108" location="데이터프레임!A1" display="▶▶" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D108" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A102" r:id="rId1" xr:uid="{B4EC221C-BAAD-436F-9AFC-551D8B88F7D8}"/>
+    <hyperlink ref="A2:E2" location="리스트!A17" display="1. 리스트 변수 x 만들기" xr:uid="{5A61BBAF-F996-4857-BBF5-5F9164E69063}"/>
+    <hyperlink ref="A3:E3" location="리스트!A24" display="2. 리스트의 요소 확인 : [ ], [[ ]]의 사용, $ 사용" xr:uid="{59B81A10-E505-453F-9BC8-932398443163}"/>
+    <hyperlink ref="A4:E4" location="리스트!A61" display="3. 리스트 원소 조작하기" xr:uid="{5DE53D41-3178-4950-ADC7-001163289F00}"/>
+    <hyperlink ref="A5:E5" location="리스트!A69" display="4. 리스트 합치기" xr:uid="{FC261C46-A241-4FC4-AA8C-986CF52208E7}"/>
+    <hyperlink ref="A6:E6" location="리스트!A72" display="5. 리스트를 벡터로 변환하기" xr:uid="{8D15265A-85EB-4496-957B-FD54F963BEB7}"/>
+    <hyperlink ref="A7:E7" location="리스트!A77" display="&lt; 리스트의 예&gt;" xr:uid="{F3DC9ED0-3E5D-43E8-8AF5-0FC1F051D2C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
+      <c r="A1" s="184" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="186"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A4" s="178" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A5" s="178" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6" s="181" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="69" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C12" s="69">
         <v>20</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D12" s="69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="69" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C13" s="69">
         <v>30</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D13" s="69" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="117" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="123" t="s">
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="129" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="130" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="130" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="120" t="s">
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="122"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="123" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>175</v>
-      </c>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="122"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="E33" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="F33" s="62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="59">
-        <v>25</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="60" t="s">
+    <row r="34" spans="1:9">
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="60" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="117" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="123" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="125"/>
     </row>
     <row r="35" spans="1:9">
       <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B38" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C38" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="D38" s="62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="60" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="59">
+        <v>25</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="C38" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="59">
-        <v>25</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-    </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="A41" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A42" s="120" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="66">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="115"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
+      <c r="A43" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="125"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="115" t="s">
-        <v>194</v>
-      </c>
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -8518,141 +8893,181 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="115"/>
-      <c r="C46" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="59">
-        <v>25</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>180</v>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
       </c>
       <c r="F46" s="60" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="115"/>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="66">
-        <v>20</v>
+      <c r="C48" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="59">
+        <v>25</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="115"/>
-      <c r="C49" s="66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="115"/>
-      <c r="C50" s="66">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="66">
         <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="115"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="115"/>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="60" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="115"/>
-      <c r="C54" s="58" t="s">
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="115"/>
+      <c r="C56" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="59">
+      <c r="D56" s="59">
         <v>25</v>
       </c>
-      <c r="E54" s="59" t="s">
+      <c r="E56" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F56" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="115"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="67" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="115"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="115"/>
+      <c r="C59" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="115"/>
+      <c r="C60" s="66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="115"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="62" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="C57" s="66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="C58" s="66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="C59" s="66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="66" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="115"/>
-      <c r="C63" s="66" t="s">
-        <v>175</v>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="115"/>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="59">
+        <v>25</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8661,294 +9076,358 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="C67" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68" s="66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="C69" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="115"/>
+      <c r="C73" s="66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="115"/>
+      <c r="C74" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="115"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C76" s="66" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="C67" s="65"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
+    <row r="77" spans="1:6">
+      <c r="C77" s="65"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="117" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="119"/>
-      <c r="C70" t="s">
+      <c r="B80" s="119"/>
+      <c r="C80" t="s">
         <v>117</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D80" t="s">
         <v>118</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E80" t="s">
         <v>119</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F80" s="62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="120" t="s">
+    <row r="81" spans="1:8">
+      <c r="A81" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="122"/>
-      <c r="C71" t="s">
+      <c r="B81" s="122"/>
+      <c r="C81" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="68">
+      <c r="D81" s="68">
         <v>22</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E81" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="60" t="s">
+      <c r="F81" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="120"/>
-      <c r="B72" s="122"/>
-      <c r="C72" t="s">
+    <row r="82" spans="1:8">
+      <c r="A82" s="120"/>
+      <c r="B82" s="122"/>
+      <c r="C82" t="s">
         <v>170</v>
       </c>
-      <c r="D72">
+      <c r="D82">
         <v>30</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E82" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="61" t="s">
+      <c r="F82" s="61" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="120"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="59" t="s">
+    <row r="83" spans="1:8">
+      <c r="A83" s="120"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="59">
+      <c r="D83" s="59">
         <v>25</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="E83" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F83" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="120"/>
-      <c r="B74" s="122"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="120" t="s">
+    <row r="84" spans="1:8">
+      <c r="A84" s="120"/>
+      <c r="B84" s="122"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="122"/>
-      <c r="C75" t="s">
+      <c r="B85" s="122"/>
+      <c r="C85" t="s">
         <v>117</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D85" t="s">
         <v>118</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E85" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="62" t="s">
+      <c r="F85" s="62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="123" t="s">
+    <row r="86" spans="1:8">
+      <c r="A86" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="125"/>
-      <c r="C76" t="s">
+      <c r="B86" s="125"/>
+      <c r="C86" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="68">
+      <c r="D86" s="68">
         <v>20</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E86" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="60" t="s">
+      <c r="F86" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="C77" t="s">
+    <row r="87" spans="1:8">
+      <c r="C87" t="s">
         <v>170</v>
       </c>
-      <c r="D77">
+      <c r="D87">
         <v>30</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E87" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="61" t="s">
+      <c r="F87" s="61" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="C78" s="58" t="s">
+    <row r="88" spans="1:8">
+      <c r="C88" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="D78" s="59">
+      <c r="D88" s="59">
         <v>25</v>
       </c>
-      <c r="E78" s="59" t="s">
+      <c r="E88" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F78" s="60" t="s">
+      <c r="F88" s="60" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="2" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="131" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C93" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="22"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="C84" s="23" t="s">
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="22"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="C94" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="24"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="C85" s="23" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="24"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="C95" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="24"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="C86" s="23" t="s">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="24"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="C96" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="24"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="C87" s="25" t="s">
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="C97" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="26"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="132" t="s">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="26"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="132" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="63" t="s">
+    <row r="103" spans="1:8">
+      <c r="A103" s="63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.25" thickBot="1"/>
-    <row r="96" spans="1:8">
-      <c r="A96" s="134" t="s">
+    <row r="105" spans="1:8" ht="17.25" thickBot="1"/>
+    <row r="106" spans="1:8">
+      <c r="A106" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="135"/>
-      <c r="C96" s="135"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135" t="s">
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="F96" s="135"/>
-      <c r="G96" s="135"/>
-      <c r="H96" s="136"/>
-    </row>
-    <row r="97" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A97" s="137" t="s">
+      <c r="F106" s="135"/>
+      <c r="G106" s="135"/>
+      <c r="H106" s="136"/>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A107" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="138"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="139"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
+      <c r="B107" s="138"/>
+      <c r="C107" s="138"/>
+      <c r="D107" s="138"/>
+      <c r="E107" s="138"/>
+      <c r="F107" s="138"/>
+      <c r="G107" s="138"/>
+      <c r="H107" s="139"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="2"/>
-      <c r="D103" s="152"/>
-      <c r="E103" s="153" t="s">
+    <row r="110" spans="1:8">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2"/>
+      <c r="D113" s="152"/>
+      <c r="E113" s="153" t="s">
         <v>365</v>
       </c>
-      <c r="F103" s="152"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="2"/>
-      <c r="D104" s="154" t="s">
+      <c r="F113" s="152"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2"/>
+      <c r="D114" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="E104" s="153" t="s">
+      <c r="E114" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="F104" s="155" t="s">
+      <c r="F114" s="155" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E103" location="데이터프레임!A1" display="▲" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D104" location="리스트!A1" display="◀◀" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="F104" location="데이터!A1" display="▶▶" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="E104" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="E113" location="데이터프레임!A1" display="▲" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D114" location="리스트!A1" display="◀◀" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F114" location="데이터!A1" display="▶▶" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E114" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A2:E2" location="데이터프레임!A15" display="1. 변수 x, y를 만들기" xr:uid="{F8BBD51F-4810-4299-AB12-A7AE6E0CF382}"/>
+    <hyperlink ref="A3:E3" location="데이터프레임!A27" display="2. 행과 열 추가하기" xr:uid="{C0C955C0-0509-4A47-B529-BF90C5974D49}"/>
+    <hyperlink ref="A4:E4" location="데이터프레임!A51" display="3. 요소 값 보기" xr:uid="{7626617F-A064-4A73-BBC8-BB132703CEB9}"/>
+    <hyperlink ref="A5:E5" location="데이터프레임!A79" display="4. 요소 값 수정하기" xr:uid="{B0040969-FF54-4CF5-839A-A7EC3FE21102}"/>
+    <hyperlink ref="A6:E6" location="데이터프레임!A91" display="5. x 변수의 데이터 구조 확인하기" xr:uid="{5A0A83C7-9CC8-452D-9C15-194D8C260EF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8966,366 +9445,413 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="9" max="9" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
+      <c r="A1" s="184" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="186"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="187" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="178" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A4" s="181" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="117" t="s">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="123" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="123" t="s">
         <v>324</v>
-      </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="125"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="117" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="120" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="120" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="123" t="s">
-        <v>330</v>
       </c>
       <c r="B14" s="124"/>
       <c r="C14" s="124"/>
       <c r="D14" s="124"/>
       <c r="E14" s="125"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="140" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="120" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="123" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="140" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="129" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="133" t="s">
+      <c r="B27" s="118"/>
+      <c r="C27" s="119"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="133" t="s">
         <v>332</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="117" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="117" t="s">
         <v>338</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="119"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="123" t="s">
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="123" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="141"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="142" t="s">
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="141"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="142" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="117" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="117" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="123" t="s">
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="123" t="s">
         <v>339</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="87" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="87" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="143" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" s="143" t="s">
         <v>345</v>
-      </c>
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="145"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="146" t="s">
-        <v>346</v>
-      </c>
-      <c r="B70" s="147"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="147"/>
-      <c r="F70" s="147"/>
-      <c r="G70" s="148"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="146" t="s">
-        <v>347</v>
-      </c>
-      <c r="B71" s="147"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="148"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="149" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="150"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="150"/>
-      <c r="G72" s="151"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="117" t="s">
-        <v>348</v>
-      </c>
-      <c r="B74" s="118"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="119"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="120" t="s">
-        <v>349</v>
-      </c>
-      <c r="B75" s="121"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="121"/>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="122"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="140" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="143" t="s">
-        <v>352</v>
       </c>
       <c r="B79" s="144"/>
       <c r="C79" s="144"/>
-      <c r="D79" s="144" t="s">
-        <v>353</v>
-      </c>
+      <c r="D79" s="144"/>
       <c r="E79" s="144"/>
       <c r="F79" s="144"/>
       <c r="G79" s="145"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:7">
       <c r="A80" s="146" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B80" s="147"/>
       <c r="C80" s="147"/>
-      <c r="D80" s="147" t="s">
-        <v>355</v>
-      </c>
+      <c r="D80" s="147"/>
       <c r="E80" s="147"/>
       <c r="F80" s="147"/>
       <c r="G80" s="148"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="149" t="s">
+    <row r="81" spans="1:8">
+      <c r="A81" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="147"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="148"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="149" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="150"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="150"/>
+      <c r="G82" s="151"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="117" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="119"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="122"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="124"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="125"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="140" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="143" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="144"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="144" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="144"/>
+      <c r="F89" s="144"/>
+      <c r="G89" s="145"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="146" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" s="147"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147" t="s">
+        <v>355</v>
+      </c>
+      <c r="E90" s="147"/>
+      <c r="F90" s="147"/>
+      <c r="G90" s="148"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="B81" s="150"/>
-      <c r="C81" s="150"/>
-      <c r="D81" s="150" t="s">
+      <c r="B91" s="150"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="150" t="s">
         <v>356</v>
       </c>
-      <c r="E81" s="150"/>
-      <c r="F81" s="150"/>
-      <c r="G81" s="151"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="D85" s="152"/>
-      <c r="E85" s="153" t="s">
+      <c r="E91" s="150"/>
+      <c r="F91" s="150"/>
+      <c r="G91" s="151"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="D95" s="152"/>
+      <c r="E95" s="153" t="s">
         <v>365</v>
       </c>
-      <c r="F85" s="152"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="D86" s="154" t="s">
+      <c r="F95" s="152"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="D96" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="E86" s="153" t="s">
+      <c r="E96" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="F86" s="155" t="s">
+      <c r="F96" s="155" t="s">
         <v>364</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E85" location="데이터!A1" display="▲" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="D86" location="데이터프레임!A1" display="◀◀" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="F86" location="표지!A1" display="▶▶" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E86" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E95" location="데이터!A1" display="▲" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D96" location="데이터프레임!A1" display="◀◀" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="F96" location="표지!A1" display="▶▶" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E96" location="표지!A1" display="처음으로" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A2:E2" location="데이터!A11" display="1. 데이터 세트 이용하기" xr:uid="{F5C69315-9FAC-4FE8-B636-99FF96DA20B6}"/>
+    <hyperlink ref="A3:E3" location="데이터!A39" display="2. 외부 웹 사이트의 데이터 이용하기" xr:uid="{0CCE5CED-2804-4DFA-8011-DF89202386C1}"/>
+    <hyperlink ref="A4:E4" location="데이터!A88" display="3. 공공 데이터 이용하기" xr:uid="{7DC132C0-3426-4570-9BB3-A3CB0A44856D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9343,6 +9869,52 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <CultureName xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <AppVersion xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Invited_Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <NotebookType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <FolderType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Owner xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Invited_Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Templates xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
+    <Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101004CCE8ADF6792CA44949C1FEC6507BDD3" ma:contentTypeVersion="25" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="138ce8ac4684ef25e4b4948a36981742">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xmlns:ns4="a57bc816-912c-4177-a212-f3f81d5f2d17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b88fa8020b9805c2646605f0bd1a497b" ns3:_="" ns4:_="">
     <xsd:import namespace="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483"/>
@@ -9699,52 +10271,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <CultureName xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <AppVersion xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Invited_Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <NotebookType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <FolderType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Owner xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Templates xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC08C5A-B944-4721-A2F4-BAE35D876595}">
   <ds:schemaRefs>
@@ -9754,6 +10280,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7167D255-8468-4A80-B5A9-A49D2A754FAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a57bc816-912c-4177-a212-f3f81d5f2d17"/>
+    <ds:schemaRef ds:uri="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3E2172-293E-49A8-9E37-F88A97C81788}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9770,21 +10313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7167D255-8468-4A80-B5A9-A49D2A754FAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a57bc816-912c-4177-a212-f3f81d5f2d17"/>
-    <ds:schemaRef ds:uri="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Adds/Ch03_data.xlsx
+++ b/Adds/Ch03_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dae Ho Kim\OneDrive - 목원대학교\김대호(insoo_notebook)\강좌\BigDataAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dae Ho Kim\OneDrive - 목원대학교\김대호(insoo_notebook)\Lectures\BigDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="760" documentId="11_FF824F72D2FF0F8FFCBA4024A7C2ED6D630971D3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9B3C6B8-9123-4F0C-B89C-75C78FC0DFDA}"/>
+  <xr:revisionPtr revIDLastSave="813" documentId="11_FF824F72D2FF0F8FFCBA4024A7C2ED6D630971D3" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9920846E-C245-4230-AFDF-F282585188C6}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="150" windowWidth="10720" windowHeight="16420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="150" windowWidth="10720" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="475">
   <si>
     <t>1. 벡터</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2988,12 +2988,284 @@
   <si>
     <t>https://console.cloud.google.com</t>
   </si>
+  <si>
+    <t>5. 행렬식 (determinant) : det( )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>det(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>det(b)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(c(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), c(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;- matrix(c(1,2,3,4,5,6,7,8,9), c(3,3)) </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3223,6 +3495,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF005CC5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3286,7 +3590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -3974,9 +4278,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3985,9 +4287,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3998,58 +4298,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4064,7 +4313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4599,9 +4848,42 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4641,6 +4923,9 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4650,41 +4935,23 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4695,19 +4962,28 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -4946,15 +5222,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>170679</xdr:colOff>
+      <xdr:colOff>167504</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>53450</xdr:rowOff>
+      <xdr:rowOff>15350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4977,8 +5253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="38100"/>
-          <a:ext cx="6171429" cy="4203175"/>
+          <a:off x="701675" y="0"/>
+          <a:ext cx="6171429" cy="4206350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5003,11 +5279,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E4198E-A866-4D66-AA14-02ABF50F5F45}"/>
@@ -5184,7 +5460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5482,8 +5758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D22:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5492,48 +5768,48 @@
   </cols>
   <sheetData>
     <row r="22" spans="4:7">
-      <c r="E22" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="203"/>
+      <c r="E22" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="187"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="E23" s="204" t="s">
+      <c r="E23" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="205"/>
+      <c r="F23" s="189"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="E24" s="206" t="s">
+      <c r="E24" s="184" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="171"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="180"/>
+      <c r="F25" s="191"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="E26" s="179" t="s">
+      <c r="E26" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="180"/>
+      <c r="F26" s="191"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="E27" s="181" t="s">
+      <c r="E27" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="182"/>
+      <c r="F27" s="193"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="178" t="s">
+      <c r="D29" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5581,94 +5857,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="185"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="185"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="196"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="185"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="196"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="196"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
@@ -7011,77 +7287,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="200" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="202"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="194" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="169"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="185"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="185"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="196"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="194" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="185"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="196"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="194" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="196"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="194" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="196"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="194" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="185"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="196"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="197" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1">
       <c r="A16" s="2" t="s">
@@ -8140,7 +8416,7 @@
       <c r="C133" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="D133" s="200" t="s">
+      <c r="D133" s="183" t="s">
         <v>157</v>
       </c>
     </row>
@@ -8178,10 +8454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2EF2F-47B8-4AD4-8548-A27DD5EDBF76}">
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8191,45 +8467,53 @@
     <col min="3" max="3" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="207" t="s">
+    <row r="1" spans="1:4" ht="21" thickBot="1">
+      <c r="A1" s="213" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="215"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="216" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="211"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="219" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="211"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="220"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="219" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="211"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="220"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="219" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="214"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="220"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="221" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="223"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="174" t="s">
@@ -8252,30 +8536,30 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="196"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
     </row>
     <row r="22" spans="1:9">
       <c r="D22" t="s">
@@ -8298,11 +8582,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="179" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
       <c r="D23" s="173" t="s">
         <v>255</v>
       </c>
@@ -8323,11 +8607,11 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="173" t="s">
         <v>256</v>
       </c>
@@ -8371,10 +8655,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="179" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="196"/>
+      <c r="B27" s="179"/>
       <c r="D27" s="173" t="s">
         <v>255</v>
       </c>
@@ -8395,10 +8679,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="196" t="s">
+      <c r="A28" s="179" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="196"/>
+      <c r="B28" s="179"/>
       <c r="D28" s="173" t="s">
         <v>256</v>
       </c>
@@ -8419,8 +8703,8 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="196"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="179"/>
       <c r="D29" s="173" t="s">
         <v>260</v>
       </c>
@@ -8481,10 +8765,10 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="196" t="s">
+      <c r="A33" s="179" t="s">
         <v>263</v>
       </c>
-      <c r="B33" s="196"/>
+      <c r="B33" s="179"/>
       <c r="D33" t="s">
         <v>264</v>
       </c>
@@ -8520,10 +8804,10 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="196" t="s">
+      <c r="A34" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="196"/>
+      <c r="B34" s="179"/>
       <c r="D34" s="173" t="s">
         <v>255</v>
       </c>
@@ -8559,8 +8843,8 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="196"/>
-      <c r="B35" s="196"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="179"/>
       <c r="D35" s="173" t="s">
         <v>256</v>
       </c>
@@ -8596,8 +8880,8 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="196"/>
-      <c r="B36" s="196"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="179"/>
       <c r="D36" s="173" t="s">
         <v>260</v>
       </c>
@@ -8633,8 +8917,8 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="196"/>
-      <c r="B37" s="196"/>
+      <c r="A37" s="179"/>
+      <c r="B37" s="179"/>
       <c r="D37" s="173" t="s">
         <v>261</v>
       </c>
@@ -8880,10 +9164,10 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="179" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="196"/>
+      <c r="B45" s="179"/>
       <c r="D45" t="s">
         <v>276</v>
       </c>
@@ -8919,10 +9203,10 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="196" t="s">
+      <c r="A46" s="179" t="s">
         <v>276</v>
       </c>
-      <c r="B46" s="196"/>
+      <c r="B46" s="179"/>
       <c r="D46" s="173" t="s">
         <v>255</v>
       </c>
@@ -8958,8 +9242,8 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="196"/>
-      <c r="B47" s="196"/>
+      <c r="A47" s="179"/>
+      <c r="B47" s="179"/>
       <c r="D47" s="173" t="s">
         <v>256</v>
       </c>
@@ -8995,8 +9279,8 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="196"/>
-      <c r="B48" s="196"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="179"/>
       <c r="D48" s="173" t="s">
         <v>260</v>
       </c>
@@ -9032,8 +9316,8 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="196"/>
-      <c r="B49" s="196"/>
+      <c r="A49" s="179"/>
+      <c r="B49" s="179"/>
       <c r="D49" s="173" t="s">
         <v>261</v>
       </c>
@@ -9069,8 +9353,8 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="196"/>
-      <c r="B50" s="196"/>
+      <c r="A50" s="179"/>
+      <c r="B50" s="179"/>
       <c r="D50" s="173" t="s">
         <v>262</v>
       </c>
@@ -9281,10 +9565,10 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="196" t="s">
+      <c r="A57" s="179" t="s">
         <v>277</v>
       </c>
-      <c r="B57" s="196"/>
+      <c r="B57" s="179"/>
       <c r="D57" t="s">
         <v>278</v>
       </c>
@@ -9305,8 +9589,8 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="196"/>
-      <c r="B58" s="196"/>
+      <c r="A58" s="179"/>
+      <c r="B58" s="179"/>
       <c r="D58" s="173" t="s">
         <v>255</v>
       </c>
@@ -9327,8 +9611,8 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="196"/>
-      <c r="B59" s="196"/>
+      <c r="A59" s="179"/>
+      <c r="B59" s="179"/>
       <c r="D59" s="173" t="s">
         <v>256</v>
       </c>
@@ -9349,8 +9633,8 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="196"/>
-      <c r="B60" s="196"/>
+      <c r="A60" s="179"/>
+      <c r="B60" s="179"/>
       <c r="D60" s="173" t="s">
         <v>260</v>
       </c>
@@ -9371,8 +9655,8 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="196"/>
-      <c r="B61" s="196"/>
+      <c r="A61" s="179"/>
+      <c r="B61" s="179"/>
       <c r="D61" s="173" t="s">
         <v>261</v>
       </c>
@@ -9393,8 +9677,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="196"/>
-      <c r="B62" s="196"/>
+      <c r="A62" s="179"/>
+      <c r="B62" s="179"/>
       <c r="D62" s="173" t="s">
         <v>262</v>
       </c>
@@ -9434,11 +9718,11 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="196" t="s">
+      <c r="A66" s="179" t="s">
         <v>281</v>
       </c>
-      <c r="B66" s="196"/>
-      <c r="C66" s="196"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
       <c r="D66" s="173" t="s">
         <v>282</v>
       </c>
@@ -9453,9 +9737,9 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="196"/>
-      <c r="B67" s="196"/>
-      <c r="C67" s="196"/>
+      <c r="A67" s="179"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="179"/>
       <c r="D67" s="173" t="s">
         <v>283</v>
       </c>
@@ -9470,16 +9754,16 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="196"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="196"/>
+      <c r="A68" s="179"/>
+      <c r="B68" s="179"/>
+      <c r="C68" s="179"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="196" t="s">
+      <c r="A69" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="B69" s="196"/>
-      <c r="C69" s="196"/>
+      <c r="B69" s="179"/>
+      <c r="C69" s="179"/>
       <c r="E69" s="173" t="s">
         <v>282</v>
       </c>
@@ -9488,11 +9772,11 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="196"/>
-      <c r="C70" s="196"/>
+      <c r="B70" s="179"/>
+      <c r="C70" s="179"/>
       <c r="D70" s="173" t="s">
         <v>286</v>
       </c>
@@ -9504,9 +9788,9 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="196"/>
-      <c r="B71" s="196"/>
-      <c r="C71" s="196"/>
+      <c r="A71" s="179"/>
+      <c r="B71" s="179"/>
+      <c r="C71" s="179"/>
       <c r="D71" s="173" t="s">
         <v>287</v>
       </c>
@@ -9518,9 +9802,9 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="196"/>
-      <c r="B72" s="196"/>
-      <c r="C72" s="196"/>
+      <c r="A72" s="179"/>
+      <c r="B72" s="179"/>
+      <c r="C72" s="179"/>
       <c r="D72" s="173" t="s">
         <v>260</v>
       </c>
@@ -9548,11 +9832,11 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="196" t="s">
+      <c r="A76" s="179" t="s">
         <v>289</v>
       </c>
-      <c r="B76" s="196"/>
-      <c r="C76" s="196"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
       <c r="D76" s="173" t="s">
         <v>282</v>
       </c>
@@ -9567,11 +9851,11 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="196" t="s">
+      <c r="A77" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="196"/>
-      <c r="C77" s="196"/>
+      <c r="B77" s="179"/>
+      <c r="C77" s="179"/>
       <c r="D77" s="173" t="s">
         <v>283</v>
       </c>
@@ -9601,11 +9885,11 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="196" t="s">
+      <c r="A82" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="B82" s="196"/>
-      <c r="C82" s="196"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="179"/>
       <c r="D82" t="s">
         <v>282</v>
       </c>
@@ -9632,11 +9916,11 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="196" t="s">
+      <c r="A83" s="179" t="s">
         <v>294</v>
       </c>
-      <c r="B83" s="196"/>
-      <c r="C83" s="196"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
       <c r="D83" s="173" t="s">
         <v>255</v>
       </c>
@@ -9663,9 +9947,9 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="196"/>
-      <c r="B84" s="196"/>
-      <c r="C84" s="196"/>
+      <c r="A84" s="179"/>
+      <c r="B84" s="179"/>
+      <c r="C84" s="179"/>
       <c r="D84" s="173" t="s">
         <v>256</v>
       </c>
@@ -9692,16 +9976,16 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="196"/>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
+      <c r="A85" s="179"/>
+      <c r="B85" s="179"/>
+      <c r="C85" s="179"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="198" t="s">
+      <c r="A86" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="B86" s="196"/>
-      <c r="C86" s="196"/>
+      <c r="B86" s="179"/>
+      <c r="C86" s="179"/>
       <c r="D86" t="s">
         <v>296</v>
       </c>
@@ -9716,9 +10000,9 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="196"/>
-      <c r="B87" s="196"/>
-      <c r="C87" s="196"/>
+      <c r="A87" s="179"/>
+      <c r="B87" s="179"/>
+      <c r="C87" s="179"/>
       <c r="D87" s="173" t="s">
         <v>255</v>
       </c>
@@ -9733,9 +10017,9 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="196"/>
-      <c r="B88" s="196"/>
-      <c r="C88" s="196"/>
+      <c r="A88" s="179"/>
+      <c r="B88" s="179"/>
+      <c r="C88" s="179"/>
       <c r="D88" s="173" t="s">
         <v>256</v>
       </c>
@@ -9755,11 +10039,11 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="196" t="s">
+      <c r="A91" s="179" t="s">
         <v>298</v>
       </c>
-      <c r="B91" s="196"/>
-      <c r="C91" s="196"/>
+      <c r="B91" s="179"/>
+      <c r="C91" s="179"/>
       <c r="D91" t="s">
         <v>247</v>
       </c>
@@ -9786,11 +10070,11 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="196" t="s">
+      <c r="A92" s="179" t="s">
         <v>300</v>
       </c>
-      <c r="B92" s="196"/>
-      <c r="C92" s="196"/>
+      <c r="B92" s="179"/>
+      <c r="C92" s="179"/>
       <c r="D92" s="173" t="s">
         <v>255</v>
       </c>
@@ -9817,9 +10101,9 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="196"/>
-      <c r="B93" s="196"/>
-      <c r="C93" s="196"/>
+      <c r="A93" s="179"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
       <c r="D93" s="173" t="s">
         <v>256</v>
       </c>
@@ -9846,9 +10130,9 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="196"/>
-      <c r="B94" s="196"/>
-      <c r="C94" s="196"/>
+      <c r="A94" s="179"/>
+      <c r="B94" s="179"/>
+      <c r="C94" s="179"/>
       <c r="D94" s="173" t="s">
         <v>260</v>
       </c>
@@ -9875,21 +10159,21 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="196"/>
-      <c r="B95" s="196"/>
-      <c r="C95" s="196"/>
+      <c r="A95" s="179"/>
+      <c r="B95" s="179"/>
+      <c r="C95" s="179"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="198" t="s">
+      <c r="A96" s="181" t="s">
         <v>301</v>
       </c>
-      <c r="B96" s="196"/>
-      <c r="C96" s="196"/>
+      <c r="B96" s="179"/>
+      <c r="C96" s="179"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="196"/>
-      <c r="B97" s="196"/>
-      <c r="C97" s="196"/>
+      <c r="A97" s="179"/>
+      <c r="B97" s="179"/>
+      <c r="C97" s="179"/>
       <c r="D97" t="s">
         <v>302</v>
       </c>
@@ -9904,9 +10188,9 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="196"/>
-      <c r="B98" s="196"/>
-      <c r="C98" s="196"/>
+      <c r="A98" s="179"/>
+      <c r="B98" s="179"/>
+      <c r="C98" s="179"/>
       <c r="D98" s="173" t="s">
         <v>255</v>
       </c>
@@ -9921,9 +10205,9 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="196"/>
-      <c r="B99" s="196"/>
-      <c r="C99" s="196"/>
+      <c r="A99" s="179"/>
+      <c r="B99" s="179"/>
+      <c r="C99" s="179"/>
       <c r="D99" s="173" t="s">
         <v>256</v>
       </c>
@@ -9938,9 +10222,9 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="196"/>
-      <c r="B100" s="196"/>
-      <c r="C100" s="196"/>
+      <c r="A100" s="179"/>
+      <c r="B100" s="179"/>
+      <c r="C100" s="179"/>
       <c r="D100" s="173" t="s">
         <v>260</v>
       </c>
@@ -9960,11 +10244,11 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="196" t="s">
+      <c r="A103" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="B103" s="196"/>
-      <c r="C103" s="196"/>
+      <c r="B103" s="179"/>
+      <c r="C103" s="179"/>
       <c r="D103" t="s">
         <v>282</v>
       </c>
@@ -9979,9 +10263,9 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="196"/>
-      <c r="B104" s="196"/>
-      <c r="C104" s="196"/>
+      <c r="A104" s="179"/>
+      <c r="B104" s="179"/>
+      <c r="C104" s="179"/>
       <c r="D104" s="173" t="s">
         <v>255</v>
       </c>
@@ -9996,9 +10280,9 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="196"/>
-      <c r="B105" s="196"/>
-      <c r="C105" s="196"/>
+      <c r="A105" s="179"/>
+      <c r="B105" s="179"/>
+      <c r="C105" s="179"/>
       <c r="D105" s="173" t="s">
         <v>256</v>
       </c>
@@ -10013,16 +10297,16 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="196"/>
-      <c r="B106" s="196"/>
-      <c r="C106" s="196"/>
+      <c r="A106" s="179"/>
+      <c r="B106" s="179"/>
+      <c r="C106" s="179"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="198" t="s">
+      <c r="A107" s="181" t="s">
         <v>304</v>
       </c>
-      <c r="B107" s="196"/>
-      <c r="C107" s="196"/>
+      <c r="B107" s="179"/>
+      <c r="C107" s="179"/>
       <c r="D107" t="s">
         <v>304</v>
       </c>
@@ -10035,9 +10319,9 @@
       <c r="G107" s="173"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="196"/>
-      <c r="B108" s="196"/>
-      <c r="C108" s="196"/>
+      <c r="A108" s="179"/>
+      <c r="B108" s="179"/>
+      <c r="C108" s="179"/>
       <c r="D108" s="173" t="s">
         <v>255</v>
       </c>
@@ -10050,9 +10334,9 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="196"/>
-      <c r="B109" s="196"/>
-      <c r="C109" s="196"/>
+      <c r="A109" s="179"/>
+      <c r="B109" s="179"/>
+      <c r="C109" s="179"/>
       <c r="D109" s="173" t="s">
         <v>256</v>
       </c>
@@ -10065,9 +10349,9 @@
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="196"/>
-      <c r="B110" s="196"/>
-      <c r="C110" s="196"/>
+      <c r="A110" s="179"/>
+      <c r="B110" s="179"/>
+      <c r="C110" s="179"/>
       <c r="D110" s="173" t="s">
         <v>260</v>
       </c>
@@ -10079,11 +10363,11 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="195" t="s">
+      <c r="A113" s="178" t="s">
         <v>293</v>
       </c>
-      <c r="B113" s="196"/>
-      <c r="C113" s="196"/>
+      <c r="B113" s="179"/>
+      <c r="C113" s="179"/>
       <c r="D113" t="s">
         <v>282</v>
       </c>
@@ -10110,11 +10394,11 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="195" t="s">
+      <c r="A114" s="178" t="s">
         <v>294</v>
       </c>
-      <c r="B114" s="196"/>
-      <c r="C114" s="196"/>
+      <c r="B114" s="179"/>
+      <c r="C114" s="179"/>
       <c r="D114" s="173" t="s">
         <v>255</v>
       </c>
@@ -10141,9 +10425,9 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="195"/>
-      <c r="B115" s="196"/>
-      <c r="C115" s="196"/>
+      <c r="A115" s="178"/>
+      <c r="B115" s="179"/>
+      <c r="C115" s="179"/>
       <c r="D115" s="173" t="s">
         <v>256</v>
       </c>
@@ -10170,21 +10454,21 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="195"/>
-      <c r="B116" s="196"/>
-      <c r="C116" s="196"/>
+      <c r="A116" s="178"/>
+      <c r="B116" s="179"/>
+      <c r="C116" s="179"/>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="195"/>
-      <c r="B117" s="196"/>
-      <c r="C117" s="196"/>
+      <c r="A117" s="178"/>
+      <c r="B117" s="179"/>
+      <c r="C117" s="179"/>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="197" t="s">
+      <c r="A118" s="180" t="s">
         <v>305</v>
       </c>
-      <c r="B118" s="196"/>
-      <c r="C118" s="196"/>
+      <c r="B118" s="179"/>
+      <c r="C118" s="179"/>
       <c r="D118" t="s">
         <v>304</v>
       </c>
@@ -10208,9 +10492,9 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="196"/>
-      <c r="B119" s="196"/>
-      <c r="C119" s="196"/>
+      <c r="A119" s="179"/>
+      <c r="B119" s="179"/>
+      <c r="C119" s="179"/>
       <c r="D119" s="173" t="s">
         <v>255</v>
       </c>
@@ -10234,9 +10518,9 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="196"/>
-      <c r="B120" s="196"/>
-      <c r="C120" s="196"/>
+      <c r="A120" s="179"/>
+      <c r="B120" s="179"/>
+      <c r="C120" s="179"/>
       <c r="D120" s="173" t="s">
         <v>256</v>
       </c>
@@ -10260,9 +10544,9 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="196"/>
-      <c r="B121" s="196"/>
-      <c r="C121" s="196"/>
+      <c r="A121" s="179"/>
+      <c r="B121" s="179"/>
+      <c r="C121" s="179"/>
       <c r="D121" s="173" t="s">
         <v>260</v>
       </c>
@@ -10274,16 +10558,16 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="196"/>
-      <c r="B122" s="196"/>
-      <c r="C122" s="196"/>
+      <c r="A122" s="179"/>
+      <c r="B122" s="179"/>
+      <c r="C122" s="179"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="197" t="s">
+      <c r="A123" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="B123" s="196"/>
-      <c r="C123" s="196"/>
+      <c r="B123" s="179"/>
+      <c r="C123" s="179"/>
       <c r="D123" t="s">
         <v>285</v>
       </c>
@@ -10298,9 +10582,9 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="196"/>
-      <c r="B124" s="196"/>
-      <c r="C124" s="196"/>
+      <c r="A124" s="179"/>
+      <c r="B124" s="179"/>
+      <c r="C124" s="179"/>
       <c r="D124" s="173" t="s">
         <v>255</v>
       </c>
@@ -10309,9 +10593,9 @@
       <c r="G124" s="172"/>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="196"/>
-      <c r="B125" s="196"/>
-      <c r="C125" s="196"/>
+      <c r="A125" s="179"/>
+      <c r="B125" s="179"/>
+      <c r="C125" s="179"/>
       <c r="D125" s="173" t="s">
         <v>256</v>
       </c>
@@ -10320,9 +10604,9 @@
       <c r="G125" s="172"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="196"/>
-      <c r="B126" s="196"/>
-      <c r="C126" s="196"/>
+      <c r="A126" s="179"/>
+      <c r="B126" s="179"/>
+      <c r="C126" s="179"/>
       <c r="D126" s="173" t="s">
         <v>260</v>
       </c>
@@ -10346,11 +10630,11 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="196" t="s">
+      <c r="A132" s="179" t="s">
         <v>309</v>
       </c>
-      <c r="B132" s="196"/>
-      <c r="C132" s="196"/>
+      <c r="B132" s="179"/>
+      <c r="C132" s="179"/>
       <c r="D132" t="s">
         <v>247</v>
       </c>
@@ -10365,9 +10649,9 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="196"/>
-      <c r="B133" s="196"/>
-      <c r="C133" s="196"/>
+      <c r="A133" s="179"/>
+      <c r="B133" s="179"/>
+      <c r="C133" s="179"/>
       <c r="D133" s="173" t="s">
         <v>255</v>
       </c>
@@ -10382,9 +10666,9 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="196"/>
-      <c r="B134" s="196"/>
-      <c r="C134" s="196"/>
+      <c r="A134" s="179"/>
+      <c r="B134" s="179"/>
+      <c r="C134" s="179"/>
       <c r="D134" s="173" t="s">
         <v>256</v>
       </c>
@@ -10399,9 +10683,9 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="196"/>
-      <c r="B135" s="196"/>
-      <c r="C135" s="196"/>
+      <c r="A135" s="179"/>
+      <c r="B135" s="179"/>
+      <c r="C135" s="179"/>
       <c r="D135" s="173" t="s">
         <v>260</v>
       </c>
@@ -10416,16 +10700,16 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="196"/>
-      <c r="B136" s="196"/>
-      <c r="C136" s="196"/>
+      <c r="A136" s="179"/>
+      <c r="B136" s="179"/>
+      <c r="C136" s="179"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="196" t="s">
+      <c r="A137" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="B137" s="196"/>
-      <c r="C137" s="196"/>
+      <c r="B137" s="179"/>
+      <c r="C137" s="179"/>
       <c r="D137" t="s">
         <v>310</v>
       </c>
@@ -10440,9 +10724,9 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="196"/>
-      <c r="B138" s="196"/>
-      <c r="C138" s="196"/>
+      <c r="A138" s="179"/>
+      <c r="B138" s="179"/>
+      <c r="C138" s="179"/>
       <c r="D138" s="173" t="s">
         <v>255</v>
       </c>
@@ -10451,9 +10735,9 @@
       <c r="G138" s="172"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="196"/>
-      <c r="B139" s="196"/>
-      <c r="C139" s="196"/>
+      <c r="A139" s="179"/>
+      <c r="B139" s="179"/>
+      <c r="C139" s="179"/>
       <c r="D139" s="173" t="s">
         <v>256</v>
       </c>
@@ -10462,9 +10746,9 @@
       <c r="G139" s="172"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="196"/>
-      <c r="B140" s="196"/>
-      <c r="C140" s="196"/>
+      <c r="A140" s="179"/>
+      <c r="B140" s="179"/>
+      <c r="C140" s="179"/>
       <c r="D140" s="173" t="s">
         <v>260</v>
       </c>
@@ -10472,44 +10756,188 @@
       <c r="F140" s="172"/>
       <c r="G140" s="172"/>
     </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
     <row r="143" spans="1:7">
-      <c r="C143" s="152"/>
-      <c r="D143" s="156" t="s">
+      <c r="A143" s="209" t="s">
+        <v>474</v>
+      </c>
+      <c r="B143" s="209"/>
+      <c r="C143" s="209"/>
+      <c r="D143" s="207" t="s">
+        <v>473</v>
+      </c>
+      <c r="E143" s="173" t="s">
+        <v>249</v>
+      </c>
+      <c r="F143" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="G143" s="173" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="210" t="s">
+        <v>470</v>
+      </c>
+      <c r="B144" s="209"/>
+      <c r="C144" s="209"/>
+      <c r="D144" s="173" t="s">
+        <v>255</v>
+      </c>
+      <c r="E144" s="208">
+        <v>1</v>
+      </c>
+      <c r="F144" s="208">
+        <v>4</v>
+      </c>
+      <c r="G144" s="208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="209"/>
+      <c r="B145" s="209"/>
+      <c r="C145" s="209"/>
+      <c r="D145" s="173" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>5</v>
+      </c>
+      <c r="G145" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="D146" s="173" t="s">
+        <v>260</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>6</v>
+      </c>
+      <c r="G146" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="211" t="s">
+        <v>472</v>
+      </c>
+      <c r="B148" s="211"/>
+      <c r="C148" s="211"/>
+      <c r="D148" s="207" t="s">
+        <v>473</v>
+      </c>
+      <c r="E148" s="173" t="s">
+        <v>249</v>
+      </c>
+      <c r="F148" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="G148" s="173" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="212" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" s="211"/>
+      <c r="C149" s="211"/>
+      <c r="D149" s="173" t="s">
+        <v>255</v>
+      </c>
+      <c r="E149" s="208">
+        <v>0</v>
+      </c>
+      <c r="F149" s="208">
+        <v>3</v>
+      </c>
+      <c r="G149" s="208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="D150" s="173" t="s">
+        <v>256</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>4</v>
+      </c>
+      <c r="G150" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="D151" s="173" t="s">
+        <v>260</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2</v>
+      </c>
+      <c r="F151" s="1">
+        <v>5</v>
+      </c>
+      <c r="G151" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="C156" s="152"/>
+      <c r="D156" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="E143" s="152"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="C144" s="199" t="s">
+      <c r="E156" s="152"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="C157" s="182" t="s">
         <v>155</v>
       </c>
-      <c r="D144" s="153" t="s">
+      <c r="D157" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="E144" s="155" t="s">
+      <c r="E157" s="155" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D143" location="배열!A1" display="▲" xr:uid="{92E4EC7D-AF37-4B06-9180-40D75EA707DC}"/>
-    <hyperlink ref="D144" location="표지!A1" display="처음으로" xr:uid="{8D0DDA8D-70C3-4292-84F7-879149F32B50}"/>
-    <hyperlink ref="E144" location="리스트!A1" display="▶▶" xr:uid="{DA1803AE-87EC-4C83-8EDB-322F96FC8E01}"/>
-    <hyperlink ref="C144" location="배열!A1" display="◀◀" xr:uid="{5A43A257-38D8-4AD9-9DC9-CF035053F6E0}"/>
+    <hyperlink ref="D156" location="배열!A1" display="▲" xr:uid="{92E4EC7D-AF37-4B06-9180-40D75EA707DC}"/>
+    <hyperlink ref="D157" location="표지!A1" display="처음으로" xr:uid="{8D0DDA8D-70C3-4292-84F7-879149F32B50}"/>
+    <hyperlink ref="E157" location="리스트!A1" display="▶▶" xr:uid="{DA1803AE-87EC-4C83-8EDB-322F96FC8E01}"/>
+    <hyperlink ref="C157" location="배열!A1" display="◀◀" xr:uid="{5A43A257-38D8-4AD9-9DC9-CF035053F6E0}"/>
     <hyperlink ref="A2:D2" location="배열!A11" display="1. 행렬의 이해" xr:uid="{A4F40387-93FC-4B45-89F5-6BBC5B783320}"/>
     <hyperlink ref="A3:D3" location="배열!A14" display="2. 행렬의 생성" xr:uid="{3EA921E1-75AF-420B-87B5-9A9B7FCDC16D}"/>
     <hyperlink ref="A4:D4" location="배열!A64" display="3. 행렬/벡터의 결합" xr:uid="{85BA22F0-EBA5-478D-8E4F-098BFE9177EC}"/>
     <hyperlink ref="A5:D5" location="배열!A79" display="4. 행렬 연산" xr:uid="{5713A4D7-2E0E-4E67-B534-69317B2FC9EE}"/>
+    <hyperlink ref="A6" location="행렬!A142" display="5. 행렬식 (determinant) : det( )" xr:uid="{E2B7BF58-1D72-4A5B-9D7A-1BAAA5C7880D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10530,67 +10958,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="194" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="194" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="194" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="185"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="194" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="185"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="194" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="196"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="197" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="188"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="199"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="B11" s="20" t="s">
@@ -11282,7 +11710,7 @@
       <c r="E107" s="152"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="C108" s="199" t="s">
+      <c r="C108" s="182" t="s">
         <v>155</v>
       </c>
       <c r="D108" s="153" t="s">
@@ -11335,58 +11763,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="200" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="204" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="194" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="194" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="185"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="194" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="185"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="197" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="199"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -12241,40 +12669,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="200" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="191"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="202"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="204" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="194" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="197" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -12645,86 +13073,31 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <CultureName xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <AppVersion xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Invited_Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <NotebookType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <FolderType xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Owner xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Students xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Templates xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xsi:nil="true"/>
-    <Teachers xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101004CCE8ADF6792CA44949C1FEC6507BDD3" ma:contentTypeVersion="25" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="138ce8ac4684ef25e4b4948a36981742">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" xmlns:ns4="a57bc816-912c-4177-a212-f3f81d5f2d17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b88fa8020b9805c2646605f0bd1a497b" ns3:_="" ns4:_="">
-    <xsd:import namespace="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483"/>
-    <xsd:import namespace="a57bc816-912c-4177-a212-f3f81d5f2d17"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101008088AF86EBBC7748AA32111B80114921" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0936b71b198d5e0a776cb7edb4bddba2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="057f4bbc-3a35-4dbe-bab4-bbe387b392e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04f9f8b1c5e72c7e1a09831a0dd7cd4" ns2:_="">
+    <xsd:import namespace="057f4bbc-3a35-4dbe-bab4-bbe387b392e0"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:NotebookType" minOccurs="0"/>
-                <xsd:element ref="ns3:FolderType" minOccurs="0"/>
-                <xsd:element ref="ns3:Owner" minOccurs="0"/>
-                <xsd:element ref="ns3:DefaultSectionNames" minOccurs="0"/>
-                <xsd:element ref="ns3:Templates" minOccurs="0"/>
-                <xsd:element ref="ns3:CultureName" minOccurs="0"/>
-                <xsd:element ref="ns3:AppVersion" minOccurs="0"/>
-                <xsd:element ref="ns3:Teachers" minOccurs="0"/>
-                <xsd:element ref="ns3:Students" minOccurs="0"/>
-                <xsd:element ref="ns3:Student_Groups" minOccurs="0"/>
-                <xsd:element ref="ns3:Invited_Teachers" minOccurs="0"/>
-                <xsd:element ref="ns3:Invited_Students" minOccurs="0"/>
-                <xsd:element ref="ns3:Self_Registration_Enabled" minOccurs="0"/>
-                <xsd:element ref="ns3:Has_Teacher_Only_SectionGroup" minOccurs="0"/>
-                <xsd:element ref="ns3:Is_Collaboration_Space_Locked" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12732,218 +13105,17 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dfa55eb8-8e89-4ded-b5d6-ce4d7c5a7483" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="057f4bbc-3a35-4dbe-bab4-bbe387b392e0" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="NotebookType" ma:index="8" nillable="true" ma:displayName="Notebook Type" ma:internalName="NotebookType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="FolderType" ma:index="9" nillable="true" ma:displayName="Folder Type" ma:internalName="FolderType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Owner" ma:index="10" nillable="true" ma:displayName="Owner" ma:internalName="Owner">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="DefaultSectionNames" ma:index="11" nillable="true" ma:displayName="Default Section Names" ma:internalName="DefaultSectionNames">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Templates" ma:index="12" nillable="true" ma:displayName="Templates" ma:internalName="Templates">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="CultureName" ma:index="13" nillable="true" ma:displayName="Culture Name" ma:internalName="CultureName">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="AppVersion" ma:index="14" nillable="true" ma:displayName="App Version" ma:internalName="AppVersion">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Teachers" ma:index="15" nillable="true" ma:displayName="Teachers" ma:internalName="Teachers">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Students" ma:index="16" nillable="true" ma:displayName="Students" ma:internalName="Students">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Student_Groups" ma:index="17" nillable="true" ma:displayName="Student Groups" ma:internalName="Student_Groups">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Invited_Teachers" ma:index="18" nillable="true" ma:displayName="Invited Teachers" ma:internalName="Invited_Teachers">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Invited_Students" ma:index="19" nillable="true" ma:displayName="Invited Students" ma:internalName="Invited_Students">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Self_Registration_Enabled" ma:index="20" nillable="true" ma:displayName="Self Registration Enabled" ma:internalName="Self_Registration_Enabled">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Has_Teacher_Only_SectionGroup" ma:index="21" nillable="true" ma:displayName="Has Teacher Only SectionGroup" ma:internalName="Has_Teacher_Only_SectionGroup">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Is_Collaboration_Space_Locked" ma:index="22" nillable="true" ma:displayName="Is Collaboration Space Locked" ma:internalName="Is_Collaboration_Space_Locked">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="28" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="29" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="30" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="31" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="32" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a57bc816-912c-4177-a212-f3f81d5f2d17" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="23" nillable="true" ma:displayName="공유 대상" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="24" nillable="true" ma:displayName="세부 정보 공유" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="25" nillable="true" ma:displayName="힌트 해시 공유" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -13046,23 +13218,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7167D255-8468-4A80-B5A9-A49D2A754FAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7167D255-8468-4A80-B5A9-A49D2A754FAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="057f4bbc-3a35-4dbe-bab4-bbe387b392e0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3E2172-293E-49A8-9E37-F88A97C81788}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC08C5A-B944-4721-A2F4-BAE35D876595}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC08C5A-B944-4721-A2F4-BAE35D876595}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72670AFF-0D0A-4F94-80E1-C136C86D2016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="057f4bbc-3a35-4dbe-bab4-bbe387b392e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>